--- a/InputData/add-outputs/SCoHIbP/Social Cost of Health Impacts by Pollutant.xlsx
+++ b/InputData/add-outputs/SCoHIbP/Social Cost of Health Impacts by Pollutant.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\India EPS\InputData UPDATE FOR INDIA\add-outputs\SCoHIbP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-india\InputData\add-outputs\SCoHIbP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="19140" windowHeight="6435"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -19,15 +19,24 @@
     <sheet name="U.S. Source Data" sheetId="2" r:id="rId5"/>
     <sheet name="SCoHIbP-transportation" sheetId="4" r:id="rId6"/>
     <sheet name="SCoHIbP-elec-distheat" sheetId="5" r:id="rId7"/>
-    <sheet name="SCoHIbP-bldgs-indst" sheetId="6" r:id="rId8"/>
-    <sheet name="SCoHIbP-LULUCF" sheetId="7" r:id="rId9"/>
+    <sheet name="SCoHIbP-bldgs" sheetId="6" r:id="rId8"/>
+    <sheet name="SCoHIbP-indst" sheetId="11" r:id="rId9"/>
+    <sheet name="SCoHIbP-LULUCF" sheetId="7" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="162913" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="127">
   <si>
     <t>Source:</t>
   </si>
@@ -350,9 +359,6 @@
     <t>Health Effects Institute</t>
   </si>
   <si>
-    <t>Curden of Disease Attributable to Major Air Pollution Sources of India</t>
-  </si>
-  <si>
     <t>https://www.healtheffects.org/publication/gbd-air-pollution-india</t>
   </si>
   <si>
@@ -408,6 +414,9 @@
   </si>
   <si>
     <t>for finding a solution using only India data.</t>
+  </si>
+  <si>
+    <t>Burden of Disease Attributable to Major Air Pollution Sources of India</t>
   </si>
 </sst>
 </file>
@@ -415,8 +424,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="172" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -598,7 +607,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -610,7 +619,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -933,11 +942,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="66.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="69.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -950,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -965,17 +976,17 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -1011,12 +1022,12 @@
     </row>
     <row r="16" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -1029,65 +1040,2026 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="B14" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:M37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="20">
+        <v>2015</v>
+      </c>
+      <c r="B2" s="11">
+        <v>0</v>
+      </c>
+      <c r="C2" s="11">
+        <f>'Assigning Deaths by Pollutant'!E25</f>
+        <v>2.8450707278884286E-4</v>
+      </c>
+      <c r="D2" s="11">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11">
+        <f>'Assigning Deaths by Pollutant'!D25</f>
+        <v>1.3476650816313608E-3</v>
+      </c>
+      <c r="F2" s="11">
+        <v>0</v>
+      </c>
+      <c r="G2" s="11">
+        <f>'Assigning Deaths by Pollutant'!B25</f>
+        <v>6.7283427038484236E-2</v>
+      </c>
+      <c r="H2" s="11">
+        <f>'Assigning Deaths by Pollutant'!C25</f>
+        <v>6.9679276072495558E-3</v>
+      </c>
+      <c r="I2" s="11">
+        <v>0</v>
+      </c>
+      <c r="J2" s="11">
+        <v>0</v>
+      </c>
+      <c r="K2" s="11">
+        <v>0</v>
+      </c>
+      <c r="L2" s="11">
+        <v>0</v>
+      </c>
+      <c r="M2" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="20">
+        <v>2016</v>
+      </c>
+      <c r="B3" s="11">
+        <f>B$2</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="11">
+        <f t="shared" ref="C3:M18" si="0">C$2</f>
+        <v>2.8450707278884286E-4</v>
+      </c>
+      <c r="D3" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E3" s="11">
+        <f t="shared" si="0"/>
+        <v>1.3476650816313608E-3</v>
+      </c>
+      <c r="F3" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G3" s="11">
+        <f t="shared" si="0"/>
+        <v>6.7283427038484236E-2</v>
+      </c>
+      <c r="H3" s="11">
+        <f t="shared" si="0"/>
+        <v>6.9679276072495558E-3</v>
+      </c>
+      <c r="I3" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J3" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K3" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L3" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M3" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="20">
+        <v>2017</v>
+      </c>
+      <c r="B4" s="11">
+        <f t="shared" ref="B4:M37" si="1">B$2</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="11">
+        <f t="shared" si="0"/>
+        <v>2.8450707278884286E-4</v>
+      </c>
+      <c r="D4" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E4" s="11">
+        <f t="shared" si="0"/>
+        <v>1.3476650816313608E-3</v>
+      </c>
+      <c r="F4" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4" s="11">
+        <f t="shared" si="0"/>
+        <v>6.7283427038484236E-2</v>
+      </c>
+      <c r="H4" s="11">
+        <f t="shared" si="0"/>
+        <v>6.9679276072495558E-3</v>
+      </c>
+      <c r="I4" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L4" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M4" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="20">
+        <v>2018</v>
+      </c>
+      <c r="B5" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C5" s="11">
+        <f t="shared" si="0"/>
+        <v>2.8450707278884286E-4</v>
+      </c>
+      <c r="D5" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="11">
+        <f t="shared" si="0"/>
+        <v>1.3476650816313608E-3</v>
+      </c>
+      <c r="F5" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="11">
+        <f t="shared" si="0"/>
+        <v>6.7283427038484236E-2</v>
+      </c>
+      <c r="H5" s="11">
+        <f t="shared" si="0"/>
+        <v>6.9679276072495558E-3</v>
+      </c>
+      <c r="I5" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="20">
+        <v>2019</v>
+      </c>
+      <c r="B6" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C6" s="11">
+        <f t="shared" si="0"/>
+        <v>2.8450707278884286E-4</v>
+      </c>
+      <c r="D6" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="11">
+        <f t="shared" si="0"/>
+        <v>1.3476650816313608E-3</v>
+      </c>
+      <c r="F6" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="11">
+        <f t="shared" si="0"/>
+        <v>6.7283427038484236E-2</v>
+      </c>
+      <c r="H6" s="11">
+        <f t="shared" si="0"/>
+        <v>6.9679276072495558E-3</v>
+      </c>
+      <c r="I6" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="20">
+        <v>2020</v>
+      </c>
+      <c r="B7" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C7" s="11">
+        <f t="shared" si="0"/>
+        <v>2.8450707278884286E-4</v>
+      </c>
+      <c r="D7" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="11">
+        <f t="shared" si="0"/>
+        <v>1.3476650816313608E-3</v>
+      </c>
+      <c r="F7" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="11">
+        <f t="shared" si="0"/>
+        <v>6.7283427038484236E-2</v>
+      </c>
+      <c r="H7" s="11">
+        <f t="shared" si="0"/>
+        <v>6.9679276072495558E-3</v>
+      </c>
+      <c r="I7" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="20">
+        <v>2021</v>
+      </c>
+      <c r="B8" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C8" s="11">
+        <f t="shared" si="0"/>
+        <v>2.8450707278884286E-4</v>
+      </c>
+      <c r="D8" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="11">
+        <f t="shared" si="0"/>
+        <v>1.3476650816313608E-3</v>
+      </c>
+      <c r="F8" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="11">
+        <f t="shared" si="0"/>
+        <v>6.7283427038484236E-2</v>
+      </c>
+      <c r="H8" s="11">
+        <f t="shared" si="0"/>
+        <v>6.9679276072495558E-3</v>
+      </c>
+      <c r="I8" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="20">
+        <v>2022</v>
+      </c>
+      <c r="B9" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C9" s="11">
+        <f t="shared" si="0"/>
+        <v>2.8450707278884286E-4</v>
+      </c>
+      <c r="D9" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="11">
+        <f t="shared" si="0"/>
+        <v>1.3476650816313608E-3</v>
+      </c>
+      <c r="F9" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="11">
+        <f t="shared" si="0"/>
+        <v>6.7283427038484236E-2</v>
+      </c>
+      <c r="H9" s="11">
+        <f t="shared" si="0"/>
+        <v>6.9679276072495558E-3</v>
+      </c>
+      <c r="I9" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="20">
+        <v>2023</v>
+      </c>
+      <c r="B10" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C10" s="11">
+        <f t="shared" si="0"/>
+        <v>2.8450707278884286E-4</v>
+      </c>
+      <c r="D10" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="11">
+        <f t="shared" si="0"/>
+        <v>1.3476650816313608E-3</v>
+      </c>
+      <c r="F10" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="11">
+        <f t="shared" si="0"/>
+        <v>6.7283427038484236E-2</v>
+      </c>
+      <c r="H10" s="11">
+        <f t="shared" si="0"/>
+        <v>6.9679276072495558E-3</v>
+      </c>
+      <c r="I10" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="20">
+        <v>2024</v>
+      </c>
+      <c r="B11" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C11" s="11">
+        <f t="shared" si="0"/>
+        <v>2.8450707278884286E-4</v>
+      </c>
+      <c r="D11" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="11">
+        <f t="shared" si="0"/>
+        <v>1.3476650816313608E-3</v>
+      </c>
+      <c r="F11" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="11">
+        <f t="shared" si="0"/>
+        <v>6.7283427038484236E-2</v>
+      </c>
+      <c r="H11" s="11">
+        <f t="shared" si="0"/>
+        <v>6.9679276072495558E-3</v>
+      </c>
+      <c r="I11" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="20">
+        <v>2025</v>
+      </c>
+      <c r="B12" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C12" s="11">
+        <f t="shared" si="0"/>
+        <v>2.8450707278884286E-4</v>
+      </c>
+      <c r="D12" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="11">
+        <f t="shared" si="0"/>
+        <v>1.3476650816313608E-3</v>
+      </c>
+      <c r="F12" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="11">
+        <f t="shared" si="0"/>
+        <v>6.7283427038484236E-2</v>
+      </c>
+      <c r="H12" s="11">
+        <f t="shared" si="0"/>
+        <v>6.9679276072495558E-3</v>
+      </c>
+      <c r="I12" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="20">
+        <v>2026</v>
+      </c>
+      <c r="B13" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C13" s="11">
+        <f t="shared" si="0"/>
+        <v>2.8450707278884286E-4</v>
+      </c>
+      <c r="D13" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="11">
+        <f t="shared" si="0"/>
+        <v>1.3476650816313608E-3</v>
+      </c>
+      <c r="F13" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="11">
+        <f t="shared" si="0"/>
+        <v>6.7283427038484236E-2</v>
+      </c>
+      <c r="H13" s="11">
+        <f t="shared" si="0"/>
+        <v>6.9679276072495558E-3</v>
+      </c>
+      <c r="I13" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="20">
+        <v>2027</v>
+      </c>
+      <c r="B14" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C14" s="11">
+        <f t="shared" si="0"/>
+        <v>2.8450707278884286E-4</v>
+      </c>
+      <c r="D14" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="11">
+        <f t="shared" si="0"/>
+        <v>1.3476650816313608E-3</v>
+      </c>
+      <c r="F14" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="11">
+        <f t="shared" si="0"/>
+        <v>6.7283427038484236E-2</v>
+      </c>
+      <c r="H14" s="11">
+        <f t="shared" si="0"/>
+        <v>6.9679276072495558E-3</v>
+      </c>
+      <c r="I14" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="20">
+        <v>2028</v>
+      </c>
+      <c r="B15" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C15" s="11">
+        <f t="shared" si="0"/>
+        <v>2.8450707278884286E-4</v>
+      </c>
+      <c r="D15" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="11">
+        <f t="shared" si="0"/>
+        <v>1.3476650816313608E-3</v>
+      </c>
+      <c r="F15" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="11">
+        <f t="shared" si="0"/>
+        <v>6.7283427038484236E-2</v>
+      </c>
+      <c r="H15" s="11">
+        <f t="shared" si="0"/>
+        <v>6.9679276072495558E-3</v>
+      </c>
+      <c r="I15" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="20">
+        <v>2029</v>
+      </c>
+      <c r="B16" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C16" s="11">
+        <f t="shared" si="0"/>
+        <v>2.8450707278884286E-4</v>
+      </c>
+      <c r="D16" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="11">
+        <f t="shared" si="0"/>
+        <v>1.3476650816313608E-3</v>
+      </c>
+      <c r="F16" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="11">
+        <f t="shared" si="0"/>
+        <v>6.7283427038484236E-2</v>
+      </c>
+      <c r="H16" s="11">
+        <f t="shared" si="0"/>
+        <v>6.9679276072495558E-3</v>
+      </c>
+      <c r="I16" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="20">
+        <v>2030</v>
+      </c>
+      <c r="B17" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C17" s="11">
+        <f t="shared" si="0"/>
+        <v>2.8450707278884286E-4</v>
+      </c>
+      <c r="D17" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="11">
+        <f t="shared" si="0"/>
+        <v>1.3476650816313608E-3</v>
+      </c>
+      <c r="F17" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="11">
+        <f t="shared" si="0"/>
+        <v>6.7283427038484236E-2</v>
+      </c>
+      <c r="H17" s="11">
+        <f t="shared" si="0"/>
+        <v>6.9679276072495558E-3</v>
+      </c>
+      <c r="I17" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="20">
+        <v>2031</v>
+      </c>
+      <c r="B18" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C18" s="11">
+        <f t="shared" si="0"/>
+        <v>2.8450707278884286E-4</v>
+      </c>
+      <c r="D18" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="11">
+        <f t="shared" si="0"/>
+        <v>1.3476650816313608E-3</v>
+      </c>
+      <c r="F18" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="11">
+        <f t="shared" si="0"/>
+        <v>6.7283427038484236E-2</v>
+      </c>
+      <c r="H18" s="11">
+        <f t="shared" si="0"/>
+        <v>6.9679276072495558E-3</v>
+      </c>
+      <c r="I18" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="20">
+        <v>2032</v>
+      </c>
+      <c r="B19" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C19" s="11">
+        <f t="shared" si="1"/>
+        <v>2.8450707278884286E-4</v>
+      </c>
+      <c r="D19" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="11">
+        <f t="shared" si="1"/>
+        <v>1.3476650816313608E-3</v>
+      </c>
+      <c r="F19" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="11">
+        <f t="shared" si="1"/>
+        <v>6.7283427038484236E-2</v>
+      </c>
+      <c r="H19" s="11">
+        <f t="shared" si="1"/>
+        <v>6.9679276072495558E-3</v>
+      </c>
+      <c r="I19" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="20">
+        <v>2033</v>
+      </c>
+      <c r="B20" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C20" s="11">
+        <f t="shared" si="1"/>
+        <v>2.8450707278884286E-4</v>
+      </c>
+      <c r="D20" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="11">
+        <f t="shared" si="1"/>
+        <v>1.3476650816313608E-3</v>
+      </c>
+      <c r="F20" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="11">
+        <f t="shared" si="1"/>
+        <v>6.7283427038484236E-2</v>
+      </c>
+      <c r="H20" s="11">
+        <f t="shared" si="1"/>
+        <v>6.9679276072495558E-3</v>
+      </c>
+      <c r="I20" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="20">
+        <v>2034</v>
+      </c>
+      <c r="B21" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C21" s="11">
+        <f t="shared" si="1"/>
+        <v>2.8450707278884286E-4</v>
+      </c>
+      <c r="D21" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="11">
+        <f t="shared" si="1"/>
+        <v>1.3476650816313608E-3</v>
+      </c>
+      <c r="F21" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="11">
+        <f t="shared" si="1"/>
+        <v>6.7283427038484236E-2</v>
+      </c>
+      <c r="H21" s="11">
+        <f t="shared" si="1"/>
+        <v>6.9679276072495558E-3</v>
+      </c>
+      <c r="I21" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="20">
+        <v>2035</v>
+      </c>
+      <c r="B22" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C22" s="11">
+        <f t="shared" si="1"/>
+        <v>2.8450707278884286E-4</v>
+      </c>
+      <c r="D22" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="11">
+        <f t="shared" si="1"/>
+        <v>1.3476650816313608E-3</v>
+      </c>
+      <c r="F22" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="11">
+        <f t="shared" si="1"/>
+        <v>6.7283427038484236E-2</v>
+      </c>
+      <c r="H22" s="11">
+        <f t="shared" si="1"/>
+        <v>6.9679276072495558E-3</v>
+      </c>
+      <c r="I22" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="20">
+        <v>2036</v>
+      </c>
+      <c r="B23" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C23" s="11">
+        <f t="shared" si="1"/>
+        <v>2.8450707278884286E-4</v>
+      </c>
+      <c r="D23" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="11">
+        <f t="shared" si="1"/>
+        <v>1.3476650816313608E-3</v>
+      </c>
+      <c r="F23" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="11">
+        <f t="shared" si="1"/>
+        <v>6.7283427038484236E-2</v>
+      </c>
+      <c r="H23" s="11">
+        <f t="shared" si="1"/>
+        <v>6.9679276072495558E-3</v>
+      </c>
+      <c r="I23" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="20">
+        <v>2037</v>
+      </c>
+      <c r="B24" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C24" s="11">
+        <f t="shared" si="1"/>
+        <v>2.8450707278884286E-4</v>
+      </c>
+      <c r="D24" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="11">
+        <f t="shared" si="1"/>
+        <v>1.3476650816313608E-3</v>
+      </c>
+      <c r="F24" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="11">
+        <f t="shared" si="1"/>
+        <v>6.7283427038484236E-2</v>
+      </c>
+      <c r="H24" s="11">
+        <f t="shared" si="1"/>
+        <v>6.9679276072495558E-3</v>
+      </c>
+      <c r="I24" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="20">
+        <v>2038</v>
+      </c>
+      <c r="B25" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C25" s="11">
+        <f t="shared" si="1"/>
+        <v>2.8450707278884286E-4</v>
+      </c>
+      <c r="D25" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="11">
+        <f t="shared" si="1"/>
+        <v>1.3476650816313608E-3</v>
+      </c>
+      <c r="F25" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="11">
+        <f t="shared" si="1"/>
+        <v>6.7283427038484236E-2</v>
+      </c>
+      <c r="H25" s="11">
+        <f t="shared" si="1"/>
+        <v>6.9679276072495558E-3</v>
+      </c>
+      <c r="I25" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="20">
+        <v>2039</v>
+      </c>
+      <c r="B26" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C26" s="11">
+        <f t="shared" si="1"/>
+        <v>2.8450707278884286E-4</v>
+      </c>
+      <c r="D26" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="11">
+        <f t="shared" si="1"/>
+        <v>1.3476650816313608E-3</v>
+      </c>
+      <c r="F26" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="11">
+        <f t="shared" si="1"/>
+        <v>6.7283427038484236E-2</v>
+      </c>
+      <c r="H26" s="11">
+        <f t="shared" si="1"/>
+        <v>6.9679276072495558E-3</v>
+      </c>
+      <c r="I26" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="20">
+        <v>2040</v>
+      </c>
+      <c r="B27" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C27" s="11">
+        <f t="shared" si="1"/>
+        <v>2.8450707278884286E-4</v>
+      </c>
+      <c r="D27" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="11">
+        <f t="shared" si="1"/>
+        <v>1.3476650816313608E-3</v>
+      </c>
+      <c r="F27" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="11">
+        <f t="shared" si="1"/>
+        <v>6.7283427038484236E-2</v>
+      </c>
+      <c r="H27" s="11">
+        <f t="shared" si="1"/>
+        <v>6.9679276072495558E-3</v>
+      </c>
+      <c r="I27" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="20">
+        <v>2041</v>
+      </c>
+      <c r="B28" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C28" s="11">
+        <f t="shared" si="1"/>
+        <v>2.8450707278884286E-4</v>
+      </c>
+      <c r="D28" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="11">
+        <f t="shared" si="1"/>
+        <v>1.3476650816313608E-3</v>
+      </c>
+      <c r="F28" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="11">
+        <f t="shared" si="1"/>
+        <v>6.7283427038484236E-2</v>
+      </c>
+      <c r="H28" s="11">
+        <f t="shared" si="1"/>
+        <v>6.9679276072495558E-3</v>
+      </c>
+      <c r="I28" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="20">
+        <v>2042</v>
+      </c>
+      <c r="B29" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C29" s="11">
+        <f t="shared" si="1"/>
+        <v>2.8450707278884286E-4</v>
+      </c>
+      <c r="D29" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="11">
+        <f t="shared" si="1"/>
+        <v>1.3476650816313608E-3</v>
+      </c>
+      <c r="F29" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="11">
+        <f t="shared" si="1"/>
+        <v>6.7283427038484236E-2</v>
+      </c>
+      <c r="H29" s="11">
+        <f t="shared" si="1"/>
+        <v>6.9679276072495558E-3</v>
+      </c>
+      <c r="I29" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="20">
+        <v>2043</v>
+      </c>
+      <c r="B30" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C30" s="11">
+        <f t="shared" si="1"/>
+        <v>2.8450707278884286E-4</v>
+      </c>
+      <c r="D30" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="11">
+        <f t="shared" si="1"/>
+        <v>1.3476650816313608E-3</v>
+      </c>
+      <c r="F30" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="11">
+        <f t="shared" si="1"/>
+        <v>6.7283427038484236E-2</v>
+      </c>
+      <c r="H30" s="11">
+        <f t="shared" si="1"/>
+        <v>6.9679276072495558E-3</v>
+      </c>
+      <c r="I30" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="20">
+        <v>2044</v>
+      </c>
+      <c r="B31" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C31" s="11">
+        <f t="shared" si="1"/>
+        <v>2.8450707278884286E-4</v>
+      </c>
+      <c r="D31" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="11">
+        <f t="shared" si="1"/>
+        <v>1.3476650816313608E-3</v>
+      </c>
+      <c r="F31" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="11">
+        <f t="shared" si="1"/>
+        <v>6.7283427038484236E-2</v>
+      </c>
+      <c r="H31" s="11">
+        <f t="shared" si="1"/>
+        <v>6.9679276072495558E-3</v>
+      </c>
+      <c r="I31" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="20">
+        <v>2045</v>
+      </c>
+      <c r="B32" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C32" s="11">
+        <f t="shared" si="1"/>
+        <v>2.8450707278884286E-4</v>
+      </c>
+      <c r="D32" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E32" s="11">
+        <f t="shared" si="1"/>
+        <v>1.3476650816313608E-3</v>
+      </c>
+      <c r="F32" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="11">
+        <f t="shared" si="1"/>
+        <v>6.7283427038484236E-2</v>
+      </c>
+      <c r="H32" s="11">
+        <f t="shared" si="1"/>
+        <v>6.9679276072495558E-3</v>
+      </c>
+      <c r="I32" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="20">
+        <v>2046</v>
+      </c>
+      <c r="B33" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C33" s="11">
+        <f t="shared" si="1"/>
+        <v>2.8450707278884286E-4</v>
+      </c>
+      <c r="D33" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E33" s="11">
+        <f t="shared" si="1"/>
+        <v>1.3476650816313608E-3</v>
+      </c>
+      <c r="F33" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="11">
+        <f t="shared" si="1"/>
+        <v>6.7283427038484236E-2</v>
+      </c>
+      <c r="H33" s="11">
+        <f t="shared" si="1"/>
+        <v>6.9679276072495558E-3</v>
+      </c>
+      <c r="I33" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="20">
+        <v>2047</v>
+      </c>
+      <c r="B34" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C34" s="11">
+        <f t="shared" si="1"/>
+        <v>2.8450707278884286E-4</v>
+      </c>
+      <c r="D34" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="11">
+        <f t="shared" si="1"/>
+        <v>1.3476650816313608E-3</v>
+      </c>
+      <c r="F34" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="11">
+        <f t="shared" si="1"/>
+        <v>6.7283427038484236E-2</v>
+      </c>
+      <c r="H34" s="11">
+        <f t="shared" si="1"/>
+        <v>6.9679276072495558E-3</v>
+      </c>
+      <c r="I34" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="20">
+        <v>2048</v>
+      </c>
+      <c r="B35" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C35" s="11">
+        <f t="shared" si="1"/>
+        <v>2.8450707278884286E-4</v>
+      </c>
+      <c r="D35" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E35" s="11">
+        <f t="shared" si="1"/>
+        <v>1.3476650816313608E-3</v>
+      </c>
+      <c r="F35" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="11">
+        <f t="shared" si="1"/>
+        <v>6.7283427038484236E-2</v>
+      </c>
+      <c r="H35" s="11">
+        <f t="shared" si="1"/>
+        <v>6.9679276072495558E-3</v>
+      </c>
+      <c r="I35" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="20">
+        <v>2049</v>
+      </c>
+      <c r="B36" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C36" s="11">
+        <f t="shared" si="1"/>
+        <v>2.8450707278884286E-4</v>
+      </c>
+      <c r="D36" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E36" s="11">
+        <f t="shared" si="1"/>
+        <v>1.3476650816313608E-3</v>
+      </c>
+      <c r="F36" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="11">
+        <f t="shared" si="1"/>
+        <v>6.7283427038484236E-2</v>
+      </c>
+      <c r="H36" s="11">
+        <f t="shared" si="1"/>
+        <v>6.9679276072495558E-3</v>
+      </c>
+      <c r="I36" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L36" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="20">
+        <v>2050</v>
+      </c>
+      <c r="B37" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C37" s="11">
+        <f t="shared" si="1"/>
+        <v>2.8450707278884286E-4</v>
+      </c>
+      <c r="D37" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E37" s="11">
+        <f t="shared" si="1"/>
+        <v>1.3476650816313608E-3</v>
+      </c>
+      <c r="F37" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="11">
+        <f t="shared" si="1"/>
+        <v>6.7283427038484236E-2</v>
+      </c>
+      <c r="H37" s="11">
+        <f t="shared" si="1"/>
+        <v>6.9679276072495558E-3</v>
+      </c>
+      <c r="I37" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L37" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1095,7 +3067,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1754,7 +3728,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1867,7 +3843,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2055,7 +4033,7 @@
         <v>100</v>
       </c>
       <c r="B21" s="16">
-        <v>385829.80069959495</v>
+        <v>629154.80761072843</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2064,19 +4042,19 @@
       </c>
       <c r="B23" s="19">
         <f>B19*$B21</f>
-        <v>41261627393.787781</v>
+        <v>67283427038.484238</v>
       </c>
       <c r="C23" s="19">
         <f>C19*$B21</f>
-        <v>4273088415.5584383</v>
+        <v>6967927607.2495556</v>
       </c>
       <c r="D23" s="19">
         <f>D19*$B21</f>
-        <v>826456928.51058602</v>
+        <v>1347665081.6313608</v>
       </c>
       <c r="E23" s="19">
         <f>E19*$B21</f>
-        <v>174474240.46334594</v>
+        <v>284507072.78884286</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -2085,19 +4063,19 @@
       </c>
       <c r="B25" s="23">
         <f>B23/10^12</f>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="C25" s="23">
         <f t="shared" ref="C25:E25" si="1">C23/10^12</f>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="D25" s="23">
         <f t="shared" si="1"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="E25" s="23">
         <f t="shared" si="1"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -2107,7 +4085,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -2119,7 +4097,7 @@
     </row>
     <row r="31" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B31" s="25"/>
       <c r="C31" s="25"/>
@@ -2131,7 +4109,7 @@
     </row>
     <row r="32" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B32" s="25"/>
       <c r="C32" s="25"/>
@@ -2265,7 +4243,7 @@
         <v>267700</v>
       </c>
       <c r="J48" t="str">
-        <f>CONCATENATE(B48,", ",C48,", ",D48,", ",E48,", ",F48,", ",G48)</f>
+        <f t="shared" ref="J48:J53" si="2">CONCATENATE(B48,", ",C48,", ",D48,", ",E48,", ",F48,", ",G48)</f>
         <v>3.512, 0.495, 1.431, 0.322, 0.324, 6.783</v>
       </c>
       <c r="K48">
@@ -2306,11 +4284,11 @@
         <v>169300</v>
       </c>
       <c r="J49" s="14" t="str">
-        <f>CONCATENATE(B49,", ",C49,", ",D49,", ",E49,", ",F49,", ",G49)</f>
+        <f t="shared" si="2"/>
         <v>2.176, 0.101, 0.097, 7.246, 5.246, 1.861</v>
       </c>
       <c r="K49" s="14">
-        <f t="shared" ref="K49:K53" si="2">H49</f>
+        <f t="shared" ref="K49:K53" si="3">H49</f>
         <v>169300</v>
       </c>
     </row>
@@ -2347,11 +4325,11 @@
         <v>66200</v>
       </c>
       <c r="J50" s="14" t="str">
-        <f>CONCATENATE(B50,", ",C50,", ",D50,", ",E50,", ",F50,", ",G50)</f>
+        <f t="shared" si="2"/>
         <v>1.03, 0.081, 0.362, 0.075, 0.451, 1.749</v>
       </c>
       <c r="K50" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>66200</v>
       </c>
     </row>
@@ -2388,11 +4366,11 @@
         <v>24100</v>
       </c>
       <c r="J51" s="14" t="str">
-        <f>CONCATENATE(B51,", ",C51,", ",D51,", ",E51,", ",F51,", ",G51)</f>
+        <f t="shared" si="2"/>
         <v>0.386, 0.136, 0.063, 0.331, 0.399, 1.027</v>
       </c>
       <c r="K51" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24100</v>
       </c>
     </row>
@@ -2429,11 +4407,11 @@
         <v>23100</v>
       </c>
       <c r="J52" s="14" t="str">
-        <f>CONCATENATE(B52,", ",C52,", ",D52,", ",E52,", ",F52,", ",G52)</f>
+        <f t="shared" si="2"/>
         <v>0.263, 0.147, 0.082, 0.052, 1.396, 2.344</v>
       </c>
       <c r="K52" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23100</v>
       </c>
     </row>
@@ -2470,11 +4448,11 @@
         <v>20400</v>
       </c>
       <c r="J53" s="14" t="str">
-        <f>CONCATENATE(B53,", ",C53,", ",D53,", ",E53,", ",F53,", ",G53)</f>
+        <f t="shared" si="2"/>
         <v>0.133, 0.088, 0.028, 0.009, 1.369, 0.167</v>
       </c>
       <c r="K53" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20400</v>
       </c>
     </row>
@@ -2502,7 +4480,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2695,7 +4675,9 @@
   </sheetPr>
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2749,25 +4731,25 @@
       </c>
       <c r="C2" s="11">
         <f>'Assigning Deaths by Pollutant'!E25</f>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D2" s="11">
         <v>0</v>
       </c>
       <c r="E2" s="11">
         <f>'Assigning Deaths by Pollutant'!D25</f>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F2" s="11">
         <v>0</v>
       </c>
       <c r="G2" s="11">
         <f>'Assigning Deaths by Pollutant'!B25</f>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H2" s="11">
         <f>'Assigning Deaths by Pollutant'!C25</f>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I2" s="11">
         <v>0</v>
@@ -2795,7 +4777,7 @@
       </c>
       <c r="C3" s="11">
         <f t="shared" ref="C3:M18" si="0">C$2</f>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D3" s="11">
         <f t="shared" si="0"/>
@@ -2803,7 +4785,7 @@
       </c>
       <c r="E3" s="11">
         <f t="shared" si="0"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F3" s="11">
         <f t="shared" si="0"/>
@@ -2811,11 +4793,11 @@
       </c>
       <c r="G3" s="11">
         <f t="shared" si="0"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H3" s="11">
         <f t="shared" si="0"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I3" s="11">
         <f t="shared" si="0"/>
@@ -2848,7 +4830,7 @@
       </c>
       <c r="C4" s="11">
         <f t="shared" si="0"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D4" s="11">
         <f t="shared" si="0"/>
@@ -2856,7 +4838,7 @@
       </c>
       <c r="E4" s="11">
         <f t="shared" si="0"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F4" s="11">
         <f t="shared" si="0"/>
@@ -2864,11 +4846,11 @@
       </c>
       <c r="G4" s="11">
         <f t="shared" si="0"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H4" s="11">
         <f t="shared" si="0"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I4" s="11">
         <f t="shared" si="0"/>
@@ -2901,7 +4883,7 @@
       </c>
       <c r="C5" s="11">
         <f t="shared" si="0"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D5" s="11">
         <f t="shared" si="0"/>
@@ -2909,7 +4891,7 @@
       </c>
       <c r="E5" s="11">
         <f t="shared" si="0"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F5" s="11">
         <f t="shared" si="0"/>
@@ -2917,11 +4899,11 @@
       </c>
       <c r="G5" s="11">
         <f t="shared" si="0"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H5" s="11">
         <f t="shared" si="0"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I5" s="11">
         <f t="shared" si="0"/>
@@ -2954,7 +4936,7 @@
       </c>
       <c r="C6" s="11">
         <f t="shared" si="0"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D6" s="11">
         <f t="shared" si="0"/>
@@ -2962,7 +4944,7 @@
       </c>
       <c r="E6" s="11">
         <f t="shared" si="0"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F6" s="11">
         <f t="shared" si="0"/>
@@ -2970,11 +4952,11 @@
       </c>
       <c r="G6" s="11">
         <f t="shared" si="0"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H6" s="11">
         <f t="shared" si="0"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I6" s="11">
         <f t="shared" si="0"/>
@@ -3007,7 +4989,7 @@
       </c>
       <c r="C7" s="11">
         <f t="shared" si="0"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D7" s="11">
         <f t="shared" si="0"/>
@@ -3015,7 +4997,7 @@
       </c>
       <c r="E7" s="11">
         <f t="shared" si="0"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F7" s="11">
         <f t="shared" si="0"/>
@@ -3023,11 +5005,11 @@
       </c>
       <c r="G7" s="11">
         <f t="shared" si="0"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H7" s="11">
         <f t="shared" si="0"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I7" s="11">
         <f t="shared" si="0"/>
@@ -3060,7 +5042,7 @@
       </c>
       <c r="C8" s="11">
         <f t="shared" si="0"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D8" s="11">
         <f t="shared" si="0"/>
@@ -3068,7 +5050,7 @@
       </c>
       <c r="E8" s="11">
         <f t="shared" si="0"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F8" s="11">
         <f t="shared" si="0"/>
@@ -3076,11 +5058,11 @@
       </c>
       <c r="G8" s="11">
         <f t="shared" si="0"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H8" s="11">
         <f t="shared" si="0"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I8" s="11">
         <f t="shared" si="0"/>
@@ -3113,7 +5095,7 @@
       </c>
       <c r="C9" s="11">
         <f t="shared" si="0"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D9" s="11">
         <f t="shared" si="0"/>
@@ -3121,7 +5103,7 @@
       </c>
       <c r="E9" s="11">
         <f t="shared" si="0"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F9" s="11">
         <f t="shared" si="0"/>
@@ -3129,11 +5111,11 @@
       </c>
       <c r="G9" s="11">
         <f t="shared" si="0"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H9" s="11">
         <f t="shared" si="0"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" si="0"/>
@@ -3166,7 +5148,7 @@
       </c>
       <c r="C10" s="11">
         <f t="shared" si="0"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D10" s="11">
         <f t="shared" si="0"/>
@@ -3174,7 +5156,7 @@
       </c>
       <c r="E10" s="11">
         <f t="shared" si="0"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F10" s="11">
         <f t="shared" si="0"/>
@@ -3182,11 +5164,11 @@
       </c>
       <c r="G10" s="11">
         <f t="shared" si="0"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H10" s="11">
         <f t="shared" si="0"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" si="0"/>
@@ -3219,7 +5201,7 @@
       </c>
       <c r="C11" s="11">
         <f t="shared" si="0"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D11" s="11">
         <f t="shared" si="0"/>
@@ -3227,7 +5209,7 @@
       </c>
       <c r="E11" s="11">
         <f t="shared" si="0"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F11" s="11">
         <f t="shared" si="0"/>
@@ -3235,11 +5217,11 @@
       </c>
       <c r="G11" s="11">
         <f t="shared" si="0"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H11" s="11">
         <f t="shared" si="0"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" si="0"/>
@@ -3272,7 +5254,7 @@
       </c>
       <c r="C12" s="11">
         <f t="shared" si="0"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D12" s="11">
         <f t="shared" si="0"/>
@@ -3280,7 +5262,7 @@
       </c>
       <c r="E12" s="11">
         <f t="shared" si="0"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F12" s="11">
         <f t="shared" si="0"/>
@@ -3288,11 +5270,11 @@
       </c>
       <c r="G12" s="11">
         <f t="shared" si="0"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H12" s="11">
         <f t="shared" si="0"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" si="0"/>
@@ -3325,7 +5307,7 @@
       </c>
       <c r="C13" s="11">
         <f t="shared" si="0"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D13" s="11">
         <f t="shared" si="0"/>
@@ -3333,7 +5315,7 @@
       </c>
       <c r="E13" s="11">
         <f t="shared" si="0"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F13" s="11">
         <f t="shared" si="0"/>
@@ -3341,11 +5323,11 @@
       </c>
       <c r="G13" s="11">
         <f t="shared" si="0"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H13" s="11">
         <f t="shared" si="0"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" si="0"/>
@@ -3378,7 +5360,7 @@
       </c>
       <c r="C14" s="11">
         <f t="shared" si="0"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D14" s="11">
         <f t="shared" si="0"/>
@@ -3386,7 +5368,7 @@
       </c>
       <c r="E14" s="11">
         <f t="shared" si="0"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F14" s="11">
         <f t="shared" si="0"/>
@@ -3394,11 +5376,11 @@
       </c>
       <c r="G14" s="11">
         <f t="shared" si="0"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H14" s="11">
         <f t="shared" si="0"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" si="0"/>
@@ -3431,7 +5413,7 @@
       </c>
       <c r="C15" s="11">
         <f t="shared" si="0"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D15" s="11">
         <f t="shared" si="0"/>
@@ -3439,7 +5421,7 @@
       </c>
       <c r="E15" s="11">
         <f t="shared" si="0"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F15" s="11">
         <f t="shared" si="0"/>
@@ -3447,11 +5429,11 @@
       </c>
       <c r="G15" s="11">
         <f t="shared" si="0"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H15" s="11">
         <f t="shared" si="0"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" si="0"/>
@@ -3484,7 +5466,7 @@
       </c>
       <c r="C16" s="11">
         <f t="shared" si="0"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D16" s="11">
         <f t="shared" si="0"/>
@@ -3492,7 +5474,7 @@
       </c>
       <c r="E16" s="11">
         <f t="shared" si="0"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F16" s="11">
         <f t="shared" si="0"/>
@@ -3500,11 +5482,11 @@
       </c>
       <c r="G16" s="11">
         <f t="shared" si="0"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H16" s="11">
         <f t="shared" si="0"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" si="0"/>
@@ -3537,7 +5519,7 @@
       </c>
       <c r="C17" s="11">
         <f t="shared" si="0"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D17" s="11">
         <f t="shared" si="0"/>
@@ -3545,7 +5527,7 @@
       </c>
       <c r="E17" s="11">
         <f t="shared" si="0"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F17" s="11">
         <f t="shared" si="0"/>
@@ -3553,11 +5535,11 @@
       </c>
       <c r="G17" s="11">
         <f t="shared" si="0"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H17" s="11">
         <f t="shared" si="0"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" si="0"/>
@@ -3590,7 +5572,7 @@
       </c>
       <c r="C18" s="11">
         <f t="shared" si="0"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D18" s="11">
         <f t="shared" si="0"/>
@@ -3598,7 +5580,7 @@
       </c>
       <c r="E18" s="11">
         <f t="shared" si="0"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F18" s="11">
         <f t="shared" si="0"/>
@@ -3606,11 +5588,11 @@
       </c>
       <c r="G18" s="11">
         <f t="shared" si="0"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H18" s="11">
         <f t="shared" si="0"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" si="0"/>
@@ -3643,7 +5625,7 @@
       </c>
       <c r="C19" s="11">
         <f t="shared" si="1"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D19" s="11">
         <f t="shared" si="1"/>
@@ -3651,7 +5633,7 @@
       </c>
       <c r="E19" s="11">
         <f t="shared" si="1"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F19" s="11">
         <f t="shared" si="1"/>
@@ -3659,11 +5641,11 @@
       </c>
       <c r="G19" s="11">
         <f t="shared" si="1"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H19" s="11">
         <f t="shared" si="1"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" si="1"/>
@@ -3696,7 +5678,7 @@
       </c>
       <c r="C20" s="11">
         <f t="shared" si="1"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D20" s="11">
         <f t="shared" si="1"/>
@@ -3704,7 +5686,7 @@
       </c>
       <c r="E20" s="11">
         <f t="shared" si="1"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F20" s="11">
         <f t="shared" si="1"/>
@@ -3712,11 +5694,11 @@
       </c>
       <c r="G20" s="11">
         <f t="shared" si="1"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H20" s="11">
         <f t="shared" si="1"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" si="1"/>
@@ -3749,7 +5731,7 @@
       </c>
       <c r="C21" s="11">
         <f t="shared" si="1"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D21" s="11">
         <f t="shared" si="1"/>
@@ -3757,7 +5739,7 @@
       </c>
       <c r="E21" s="11">
         <f t="shared" si="1"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F21" s="11">
         <f t="shared" si="1"/>
@@ -3765,11 +5747,11 @@
       </c>
       <c r="G21" s="11">
         <f t="shared" si="1"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H21" s="11">
         <f t="shared" si="1"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I21" s="11">
         <f t="shared" si="1"/>
@@ -3802,7 +5784,7 @@
       </c>
       <c r="C22" s="11">
         <f t="shared" si="1"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D22" s="11">
         <f t="shared" si="1"/>
@@ -3810,7 +5792,7 @@
       </c>
       <c r="E22" s="11">
         <f t="shared" si="1"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F22" s="11">
         <f t="shared" si="1"/>
@@ -3818,11 +5800,11 @@
       </c>
       <c r="G22" s="11">
         <f t="shared" si="1"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H22" s="11">
         <f t="shared" si="1"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" si="1"/>
@@ -3855,7 +5837,7 @@
       </c>
       <c r="C23" s="11">
         <f t="shared" si="1"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D23" s="11">
         <f t="shared" si="1"/>
@@ -3863,7 +5845,7 @@
       </c>
       <c r="E23" s="11">
         <f t="shared" si="1"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F23" s="11">
         <f t="shared" si="1"/>
@@ -3871,11 +5853,11 @@
       </c>
       <c r="G23" s="11">
         <f t="shared" si="1"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H23" s="11">
         <f t="shared" si="1"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" si="1"/>
@@ -3908,7 +5890,7 @@
       </c>
       <c r="C24" s="11">
         <f t="shared" si="1"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D24" s="11">
         <f t="shared" si="1"/>
@@ -3916,7 +5898,7 @@
       </c>
       <c r="E24" s="11">
         <f t="shared" si="1"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F24" s="11">
         <f t="shared" si="1"/>
@@ -3924,11 +5906,11 @@
       </c>
       <c r="G24" s="11">
         <f t="shared" si="1"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H24" s="11">
         <f t="shared" si="1"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" si="1"/>
@@ -3961,7 +5943,7 @@
       </c>
       <c r="C25" s="11">
         <f t="shared" si="1"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D25" s="11">
         <f t="shared" si="1"/>
@@ -3969,7 +5951,7 @@
       </c>
       <c r="E25" s="11">
         <f t="shared" si="1"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F25" s="11">
         <f t="shared" si="1"/>
@@ -3977,11 +5959,11 @@
       </c>
       <c r="G25" s="11">
         <f t="shared" si="1"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H25" s="11">
         <f t="shared" si="1"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" si="1"/>
@@ -4014,7 +5996,7 @@
       </c>
       <c r="C26" s="11">
         <f t="shared" si="1"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D26" s="11">
         <f t="shared" si="1"/>
@@ -4022,7 +6004,7 @@
       </c>
       <c r="E26" s="11">
         <f t="shared" si="1"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F26" s="11">
         <f t="shared" si="1"/>
@@ -4030,11 +6012,11 @@
       </c>
       <c r="G26" s="11">
         <f t="shared" si="1"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H26" s="11">
         <f t="shared" si="1"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" si="1"/>
@@ -4067,7 +6049,7 @@
       </c>
       <c r="C27" s="11">
         <f t="shared" si="1"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D27" s="11">
         <f t="shared" si="1"/>
@@ -4075,7 +6057,7 @@
       </c>
       <c r="E27" s="11">
         <f t="shared" si="1"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F27" s="11">
         <f t="shared" si="1"/>
@@ -4083,11 +6065,11 @@
       </c>
       <c r="G27" s="11">
         <f t="shared" si="1"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H27" s="11">
         <f t="shared" si="1"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" si="1"/>
@@ -4120,7 +6102,7 @@
       </c>
       <c r="C28" s="11">
         <f t="shared" si="1"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D28" s="11">
         <f t="shared" si="1"/>
@@ -4128,7 +6110,7 @@
       </c>
       <c r="E28" s="11">
         <f t="shared" si="1"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F28" s="11">
         <f t="shared" si="1"/>
@@ -4136,11 +6118,11 @@
       </c>
       <c r="G28" s="11">
         <f t="shared" si="1"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H28" s="11">
         <f t="shared" si="1"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" si="1"/>
@@ -4173,7 +6155,7 @@
       </c>
       <c r="C29" s="11">
         <f t="shared" si="1"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D29" s="11">
         <f t="shared" si="1"/>
@@ -4181,7 +6163,7 @@
       </c>
       <c r="E29" s="11">
         <f t="shared" si="1"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F29" s="11">
         <f t="shared" si="1"/>
@@ -4189,11 +6171,11 @@
       </c>
       <c r="G29" s="11">
         <f t="shared" si="1"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H29" s="11">
         <f t="shared" si="1"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" si="1"/>
@@ -4226,7 +6208,7 @@
       </c>
       <c r="C30" s="11">
         <f t="shared" si="1"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D30" s="11">
         <f t="shared" si="1"/>
@@ -4234,7 +6216,7 @@
       </c>
       <c r="E30" s="11">
         <f t="shared" si="1"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F30" s="11">
         <f t="shared" si="1"/>
@@ -4242,11 +6224,11 @@
       </c>
       <c r="G30" s="11">
         <f t="shared" si="1"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H30" s="11">
         <f t="shared" si="1"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" si="1"/>
@@ -4279,7 +6261,7 @@
       </c>
       <c r="C31" s="11">
         <f t="shared" si="1"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D31" s="11">
         <f t="shared" si="1"/>
@@ -4287,7 +6269,7 @@
       </c>
       <c r="E31" s="11">
         <f t="shared" si="1"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F31" s="11">
         <f t="shared" si="1"/>
@@ -4295,11 +6277,11 @@
       </c>
       <c r="G31" s="11">
         <f t="shared" si="1"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H31" s="11">
         <f t="shared" si="1"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" si="1"/>
@@ -4332,7 +6314,7 @@
       </c>
       <c r="C32" s="11">
         <f t="shared" si="1"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D32" s="11">
         <f t="shared" si="1"/>
@@ -4340,7 +6322,7 @@
       </c>
       <c r="E32" s="11">
         <f t="shared" si="1"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F32" s="11">
         <f t="shared" si="1"/>
@@ -4348,11 +6330,11 @@
       </c>
       <c r="G32" s="11">
         <f t="shared" si="1"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H32" s="11">
         <f t="shared" si="1"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" si="1"/>
@@ -4385,7 +6367,7 @@
       </c>
       <c r="C33" s="11">
         <f t="shared" si="1"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D33" s="11">
         <f t="shared" si="1"/>
@@ -4393,7 +6375,7 @@
       </c>
       <c r="E33" s="11">
         <f t="shared" si="1"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F33" s="11">
         <f t="shared" si="1"/>
@@ -4401,11 +6383,11 @@
       </c>
       <c r="G33" s="11">
         <f t="shared" si="1"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H33" s="11">
         <f t="shared" si="1"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" si="1"/>
@@ -4438,7 +6420,7 @@
       </c>
       <c r="C34" s="11">
         <f t="shared" si="1"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D34" s="11">
         <f t="shared" si="1"/>
@@ -4446,7 +6428,7 @@
       </c>
       <c r="E34" s="11">
         <f t="shared" si="1"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F34" s="11">
         <f t="shared" si="1"/>
@@ -4454,11 +6436,11 @@
       </c>
       <c r="G34" s="11">
         <f t="shared" si="1"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H34" s="11">
         <f t="shared" si="1"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I34" s="11">
         <f t="shared" si="1"/>
@@ -4491,7 +6473,7 @@
       </c>
       <c r="C35" s="11">
         <f t="shared" si="1"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D35" s="11">
         <f t="shared" si="1"/>
@@ -4499,7 +6481,7 @@
       </c>
       <c r="E35" s="11">
         <f t="shared" si="1"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F35" s="11">
         <f t="shared" si="1"/>
@@ -4507,11 +6489,11 @@
       </c>
       <c r="G35" s="11">
         <f t="shared" si="1"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H35" s="11">
         <f t="shared" si="1"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I35" s="11">
         <f t="shared" si="1"/>
@@ -4544,7 +6526,7 @@
       </c>
       <c r="C36" s="11">
         <f t="shared" si="1"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D36" s="11">
         <f t="shared" si="1"/>
@@ -4552,7 +6534,7 @@
       </c>
       <c r="E36" s="11">
         <f t="shared" si="1"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F36" s="11">
         <f t="shared" si="1"/>
@@ -4560,11 +6542,11 @@
       </c>
       <c r="G36" s="11">
         <f t="shared" si="1"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H36" s="11">
         <f t="shared" si="1"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I36" s="11">
         <f t="shared" si="1"/>
@@ -4597,7 +6579,7 @@
       </c>
       <c r="C37" s="11">
         <f t="shared" si="1"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D37" s="11">
         <f t="shared" si="1"/>
@@ -4605,7 +6587,7 @@
       </c>
       <c r="E37" s="11">
         <f t="shared" si="1"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F37" s="11">
         <f t="shared" si="1"/>
@@ -4613,11 +6595,11 @@
       </c>
       <c r="G37" s="11">
         <f t="shared" si="1"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H37" s="11">
         <f t="shared" si="1"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I37" s="11">
         <f t="shared" si="1"/>
@@ -4709,25 +6691,25 @@
       </c>
       <c r="C2" s="11">
         <f>'Assigning Deaths by Pollutant'!E25</f>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D2" s="11">
         <v>0</v>
       </c>
       <c r="E2" s="11">
         <f>'Assigning Deaths by Pollutant'!D25</f>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F2" s="11">
         <v>0</v>
       </c>
       <c r="G2" s="11">
         <f>'Assigning Deaths by Pollutant'!B25</f>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H2" s="11">
         <f>'Assigning Deaths by Pollutant'!C25</f>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I2" s="11">
         <v>0</v>
@@ -4755,7 +6737,7 @@
       </c>
       <c r="C3" s="11">
         <f t="shared" ref="C3:M18" si="0">C$2</f>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D3" s="11">
         <f t="shared" si="0"/>
@@ -4763,7 +6745,7 @@
       </c>
       <c r="E3" s="11">
         <f t="shared" si="0"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F3" s="11">
         <f t="shared" si="0"/>
@@ -4771,11 +6753,11 @@
       </c>
       <c r="G3" s="11">
         <f t="shared" si="0"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H3" s="11">
         <f t="shared" si="0"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I3" s="11">
         <f t="shared" si="0"/>
@@ -4808,7 +6790,7 @@
       </c>
       <c r="C4" s="11">
         <f t="shared" si="0"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D4" s="11">
         <f t="shared" si="0"/>
@@ -4816,7 +6798,7 @@
       </c>
       <c r="E4" s="11">
         <f t="shared" si="0"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F4" s="11">
         <f t="shared" si="0"/>
@@ -4824,11 +6806,11 @@
       </c>
       <c r="G4" s="11">
         <f t="shared" si="0"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H4" s="11">
         <f t="shared" si="0"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I4" s="11">
         <f t="shared" si="0"/>
@@ -4861,7 +6843,7 @@
       </c>
       <c r="C5" s="11">
         <f t="shared" si="0"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D5" s="11">
         <f t="shared" si="0"/>
@@ -4869,7 +6851,7 @@
       </c>
       <c r="E5" s="11">
         <f t="shared" si="0"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F5" s="11">
         <f t="shared" si="0"/>
@@ -4877,11 +6859,11 @@
       </c>
       <c r="G5" s="11">
         <f t="shared" si="0"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H5" s="11">
         <f t="shared" si="0"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I5" s="11">
         <f t="shared" si="0"/>
@@ -4914,7 +6896,7 @@
       </c>
       <c r="C6" s="11">
         <f t="shared" si="0"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D6" s="11">
         <f t="shared" si="0"/>
@@ -4922,7 +6904,7 @@
       </c>
       <c r="E6" s="11">
         <f t="shared" si="0"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F6" s="11">
         <f t="shared" si="0"/>
@@ -4930,11 +6912,11 @@
       </c>
       <c r="G6" s="11">
         <f t="shared" si="0"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H6" s="11">
         <f t="shared" si="0"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I6" s="11">
         <f t="shared" si="0"/>
@@ -4967,7 +6949,7 @@
       </c>
       <c r="C7" s="11">
         <f t="shared" si="0"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D7" s="11">
         <f t="shared" si="0"/>
@@ -4975,7 +6957,7 @@
       </c>
       <c r="E7" s="11">
         <f t="shared" si="0"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F7" s="11">
         <f t="shared" si="0"/>
@@ -4983,11 +6965,11 @@
       </c>
       <c r="G7" s="11">
         <f t="shared" si="0"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H7" s="11">
         <f t="shared" si="0"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I7" s="11">
         <f t="shared" si="0"/>
@@ -5020,7 +7002,7 @@
       </c>
       <c r="C8" s="11">
         <f t="shared" si="0"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D8" s="11">
         <f t="shared" si="0"/>
@@ -5028,7 +7010,7 @@
       </c>
       <c r="E8" s="11">
         <f t="shared" si="0"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F8" s="11">
         <f t="shared" si="0"/>
@@ -5036,11 +7018,11 @@
       </c>
       <c r="G8" s="11">
         <f t="shared" si="0"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H8" s="11">
         <f t="shared" si="0"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I8" s="11">
         <f t="shared" si="0"/>
@@ -5073,7 +7055,7 @@
       </c>
       <c r="C9" s="11">
         <f t="shared" si="0"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D9" s="11">
         <f t="shared" si="0"/>
@@ -5081,7 +7063,7 @@
       </c>
       <c r="E9" s="11">
         <f t="shared" si="0"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F9" s="11">
         <f t="shared" si="0"/>
@@ -5089,11 +7071,11 @@
       </c>
       <c r="G9" s="11">
         <f t="shared" si="0"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H9" s="11">
         <f t="shared" si="0"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" si="0"/>
@@ -5126,7 +7108,7 @@
       </c>
       <c r="C10" s="11">
         <f t="shared" si="0"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D10" s="11">
         <f t="shared" si="0"/>
@@ -5134,7 +7116,7 @@
       </c>
       <c r="E10" s="11">
         <f t="shared" si="0"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F10" s="11">
         <f t="shared" si="0"/>
@@ -5142,11 +7124,11 @@
       </c>
       <c r="G10" s="11">
         <f t="shared" si="0"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H10" s="11">
         <f t="shared" si="0"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" si="0"/>
@@ -5179,7 +7161,7 @@
       </c>
       <c r="C11" s="11">
         <f t="shared" si="0"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D11" s="11">
         <f t="shared" si="0"/>
@@ -5187,7 +7169,7 @@
       </c>
       <c r="E11" s="11">
         <f t="shared" si="0"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F11" s="11">
         <f t="shared" si="0"/>
@@ -5195,11 +7177,11 @@
       </c>
       <c r="G11" s="11">
         <f t="shared" si="0"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H11" s="11">
         <f t="shared" si="0"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" si="0"/>
@@ -5232,7 +7214,7 @@
       </c>
       <c r="C12" s="11">
         <f t="shared" si="0"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D12" s="11">
         <f t="shared" si="0"/>
@@ -5240,7 +7222,7 @@
       </c>
       <c r="E12" s="11">
         <f t="shared" si="0"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F12" s="11">
         <f t="shared" si="0"/>
@@ -5248,11 +7230,11 @@
       </c>
       <c r="G12" s="11">
         <f t="shared" si="0"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H12" s="11">
         <f t="shared" si="0"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" si="0"/>
@@ -5285,7 +7267,7 @@
       </c>
       <c r="C13" s="11">
         <f t="shared" si="0"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D13" s="11">
         <f t="shared" si="0"/>
@@ -5293,7 +7275,7 @@
       </c>
       <c r="E13" s="11">
         <f t="shared" si="0"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F13" s="11">
         <f t="shared" si="0"/>
@@ -5301,11 +7283,11 @@
       </c>
       <c r="G13" s="11">
         <f t="shared" si="0"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H13" s="11">
         <f t="shared" si="0"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" si="0"/>
@@ -5338,7 +7320,7 @@
       </c>
       <c r="C14" s="11">
         <f t="shared" si="0"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D14" s="11">
         <f t="shared" si="0"/>
@@ -5346,7 +7328,7 @@
       </c>
       <c r="E14" s="11">
         <f t="shared" si="0"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F14" s="11">
         <f t="shared" si="0"/>
@@ -5354,11 +7336,11 @@
       </c>
       <c r="G14" s="11">
         <f t="shared" si="0"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H14" s="11">
         <f t="shared" si="0"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" si="0"/>
@@ -5391,7 +7373,7 @@
       </c>
       <c r="C15" s="11">
         <f t="shared" si="0"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D15" s="11">
         <f t="shared" si="0"/>
@@ -5399,7 +7381,7 @@
       </c>
       <c r="E15" s="11">
         <f t="shared" si="0"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F15" s="11">
         <f t="shared" si="0"/>
@@ -5407,11 +7389,11 @@
       </c>
       <c r="G15" s="11">
         <f t="shared" si="0"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H15" s="11">
         <f t="shared" si="0"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" si="0"/>
@@ -5444,7 +7426,7 @@
       </c>
       <c r="C16" s="11">
         <f t="shared" si="0"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D16" s="11">
         <f t="shared" si="0"/>
@@ -5452,7 +7434,7 @@
       </c>
       <c r="E16" s="11">
         <f t="shared" si="0"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F16" s="11">
         <f t="shared" si="0"/>
@@ -5460,11 +7442,11 @@
       </c>
       <c r="G16" s="11">
         <f t="shared" si="0"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H16" s="11">
         <f t="shared" si="0"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" si="0"/>
@@ -5497,7 +7479,7 @@
       </c>
       <c r="C17" s="11">
         <f t="shared" si="0"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D17" s="11">
         <f t="shared" si="0"/>
@@ -5505,7 +7487,7 @@
       </c>
       <c r="E17" s="11">
         <f t="shared" si="0"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F17" s="11">
         <f t="shared" si="0"/>
@@ -5513,11 +7495,11 @@
       </c>
       <c r="G17" s="11">
         <f t="shared" si="0"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H17" s="11">
         <f t="shared" si="0"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" si="0"/>
@@ -5550,7 +7532,7 @@
       </c>
       <c r="C18" s="11">
         <f t="shared" si="0"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D18" s="11">
         <f t="shared" si="0"/>
@@ -5558,7 +7540,7 @@
       </c>
       <c r="E18" s="11">
         <f t="shared" si="0"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F18" s="11">
         <f t="shared" si="0"/>
@@ -5566,11 +7548,11 @@
       </c>
       <c r="G18" s="11">
         <f t="shared" si="0"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H18" s="11">
         <f t="shared" si="0"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" si="0"/>
@@ -5603,7 +7585,7 @@
       </c>
       <c r="C19" s="11">
         <f t="shared" si="1"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D19" s="11">
         <f t="shared" si="1"/>
@@ -5611,7 +7593,7 @@
       </c>
       <c r="E19" s="11">
         <f t="shared" si="1"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F19" s="11">
         <f t="shared" si="1"/>
@@ -5619,11 +7601,11 @@
       </c>
       <c r="G19" s="11">
         <f t="shared" si="1"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H19" s="11">
         <f t="shared" si="1"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" si="1"/>
@@ -5656,7 +7638,7 @@
       </c>
       <c r="C20" s="11">
         <f t="shared" si="1"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D20" s="11">
         <f t="shared" si="1"/>
@@ -5664,7 +7646,7 @@
       </c>
       <c r="E20" s="11">
         <f t="shared" si="1"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F20" s="11">
         <f t="shared" si="1"/>
@@ -5672,11 +7654,11 @@
       </c>
       <c r="G20" s="11">
         <f t="shared" si="1"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H20" s="11">
         <f t="shared" si="1"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" si="1"/>
@@ -5709,7 +7691,7 @@
       </c>
       <c r="C21" s="11">
         <f t="shared" si="1"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D21" s="11">
         <f t="shared" si="1"/>
@@ -5717,7 +7699,7 @@
       </c>
       <c r="E21" s="11">
         <f t="shared" si="1"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F21" s="11">
         <f t="shared" si="1"/>
@@ -5725,11 +7707,11 @@
       </c>
       <c r="G21" s="11">
         <f t="shared" si="1"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H21" s="11">
         <f t="shared" si="1"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I21" s="11">
         <f t="shared" si="1"/>
@@ -5762,7 +7744,7 @@
       </c>
       <c r="C22" s="11">
         <f t="shared" si="1"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D22" s="11">
         <f t="shared" si="1"/>
@@ -5770,7 +7752,7 @@
       </c>
       <c r="E22" s="11">
         <f t="shared" si="1"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F22" s="11">
         <f t="shared" si="1"/>
@@ -5778,11 +7760,11 @@
       </c>
       <c r="G22" s="11">
         <f t="shared" si="1"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H22" s="11">
         <f t="shared" si="1"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" si="1"/>
@@ -5815,7 +7797,7 @@
       </c>
       <c r="C23" s="11">
         <f t="shared" si="1"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D23" s="11">
         <f t="shared" si="1"/>
@@ -5823,7 +7805,7 @@
       </c>
       <c r="E23" s="11">
         <f t="shared" si="1"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F23" s="11">
         <f t="shared" si="1"/>
@@ -5831,11 +7813,11 @@
       </c>
       <c r="G23" s="11">
         <f t="shared" si="1"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H23" s="11">
         <f t="shared" si="1"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" si="1"/>
@@ -5868,7 +7850,7 @@
       </c>
       <c r="C24" s="11">
         <f t="shared" si="1"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D24" s="11">
         <f t="shared" si="1"/>
@@ -5876,7 +7858,7 @@
       </c>
       <c r="E24" s="11">
         <f t="shared" si="1"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F24" s="11">
         <f t="shared" si="1"/>
@@ -5884,11 +7866,11 @@
       </c>
       <c r="G24" s="11">
         <f t="shared" si="1"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H24" s="11">
         <f t="shared" si="1"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" si="1"/>
@@ -5921,7 +7903,7 @@
       </c>
       <c r="C25" s="11">
         <f t="shared" si="1"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D25" s="11">
         <f t="shared" si="1"/>
@@ -5929,7 +7911,7 @@
       </c>
       <c r="E25" s="11">
         <f t="shared" si="1"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F25" s="11">
         <f t="shared" si="1"/>
@@ -5937,11 +7919,11 @@
       </c>
       <c r="G25" s="11">
         <f t="shared" si="1"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H25" s="11">
         <f t="shared" si="1"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" si="1"/>
@@ -5974,7 +7956,7 @@
       </c>
       <c r="C26" s="11">
         <f t="shared" si="1"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D26" s="11">
         <f t="shared" si="1"/>
@@ -5982,7 +7964,7 @@
       </c>
       <c r="E26" s="11">
         <f t="shared" si="1"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F26" s="11">
         <f t="shared" si="1"/>
@@ -5990,11 +7972,11 @@
       </c>
       <c r="G26" s="11">
         <f t="shared" si="1"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H26" s="11">
         <f t="shared" si="1"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" si="1"/>
@@ -6027,7 +8009,7 @@
       </c>
       <c r="C27" s="11">
         <f t="shared" si="1"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D27" s="11">
         <f t="shared" si="1"/>
@@ -6035,7 +8017,7 @@
       </c>
       <c r="E27" s="11">
         <f t="shared" si="1"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F27" s="11">
         <f t="shared" si="1"/>
@@ -6043,11 +8025,11 @@
       </c>
       <c r="G27" s="11">
         <f t="shared" si="1"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H27" s="11">
         <f t="shared" si="1"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" si="1"/>
@@ -6080,7 +8062,7 @@
       </c>
       <c r="C28" s="11">
         <f t="shared" si="1"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D28" s="11">
         <f t="shared" si="1"/>
@@ -6088,7 +8070,7 @@
       </c>
       <c r="E28" s="11">
         <f t="shared" si="1"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F28" s="11">
         <f t="shared" si="1"/>
@@ -6096,11 +8078,11 @@
       </c>
       <c r="G28" s="11">
         <f t="shared" si="1"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H28" s="11">
         <f t="shared" si="1"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" si="1"/>
@@ -6133,7 +8115,7 @@
       </c>
       <c r="C29" s="11">
         <f t="shared" si="1"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D29" s="11">
         <f t="shared" si="1"/>
@@ -6141,7 +8123,7 @@
       </c>
       <c r="E29" s="11">
         <f t="shared" si="1"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F29" s="11">
         <f t="shared" si="1"/>
@@ -6149,11 +8131,11 @@
       </c>
       <c r="G29" s="11">
         <f t="shared" si="1"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H29" s="11">
         <f t="shared" si="1"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" si="1"/>
@@ -6186,7 +8168,7 @@
       </c>
       <c r="C30" s="11">
         <f t="shared" si="1"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D30" s="11">
         <f t="shared" si="1"/>
@@ -6194,7 +8176,7 @@
       </c>
       <c r="E30" s="11">
         <f t="shared" si="1"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F30" s="11">
         <f t="shared" si="1"/>
@@ -6202,11 +8184,11 @@
       </c>
       <c r="G30" s="11">
         <f t="shared" si="1"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H30" s="11">
         <f t="shared" si="1"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" si="1"/>
@@ -6239,7 +8221,7 @@
       </c>
       <c r="C31" s="11">
         <f t="shared" si="1"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D31" s="11">
         <f t="shared" si="1"/>
@@ -6247,7 +8229,7 @@
       </c>
       <c r="E31" s="11">
         <f t="shared" si="1"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F31" s="11">
         <f t="shared" si="1"/>
@@ -6255,11 +8237,11 @@
       </c>
       <c r="G31" s="11">
         <f t="shared" si="1"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H31" s="11">
         <f t="shared" si="1"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" si="1"/>
@@ -6292,7 +8274,7 @@
       </c>
       <c r="C32" s="11">
         <f t="shared" si="1"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D32" s="11">
         <f t="shared" si="1"/>
@@ -6300,7 +8282,7 @@
       </c>
       <c r="E32" s="11">
         <f t="shared" si="1"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F32" s="11">
         <f t="shared" si="1"/>
@@ -6308,11 +8290,11 @@
       </c>
       <c r="G32" s="11">
         <f t="shared" si="1"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H32" s="11">
         <f t="shared" si="1"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" si="1"/>
@@ -6345,7 +8327,7 @@
       </c>
       <c r="C33" s="11">
         <f t="shared" si="1"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D33" s="11">
         <f t="shared" si="1"/>
@@ -6353,7 +8335,7 @@
       </c>
       <c r="E33" s="11">
         <f t="shared" si="1"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F33" s="11">
         <f t="shared" si="1"/>
@@ -6361,11 +8343,11 @@
       </c>
       <c r="G33" s="11">
         <f t="shared" si="1"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H33" s="11">
         <f t="shared" si="1"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" si="1"/>
@@ -6398,7 +8380,7 @@
       </c>
       <c r="C34" s="11">
         <f t="shared" si="1"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D34" s="11">
         <f t="shared" si="1"/>
@@ -6406,7 +8388,7 @@
       </c>
       <c r="E34" s="11">
         <f t="shared" si="1"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F34" s="11">
         <f t="shared" si="1"/>
@@ -6414,11 +8396,11 @@
       </c>
       <c r="G34" s="11">
         <f t="shared" si="1"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H34" s="11">
         <f t="shared" si="1"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I34" s="11">
         <f t="shared" si="1"/>
@@ -6451,7 +8433,7 @@
       </c>
       <c r="C35" s="11">
         <f t="shared" si="1"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D35" s="11">
         <f t="shared" si="1"/>
@@ -6459,7 +8441,7 @@
       </c>
       <c r="E35" s="11">
         <f t="shared" si="1"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F35" s="11">
         <f t="shared" si="1"/>
@@ -6467,11 +8449,11 @@
       </c>
       <c r="G35" s="11">
         <f t="shared" si="1"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H35" s="11">
         <f t="shared" si="1"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I35" s="11">
         <f t="shared" si="1"/>
@@ -6504,7 +8486,7 @@
       </c>
       <c r="C36" s="11">
         <f t="shared" si="1"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D36" s="11">
         <f t="shared" si="1"/>
@@ -6512,7 +8494,7 @@
       </c>
       <c r="E36" s="11">
         <f t="shared" si="1"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F36" s="11">
         <f t="shared" si="1"/>
@@ -6520,11 +8502,11 @@
       </c>
       <c r="G36" s="11">
         <f t="shared" si="1"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H36" s="11">
         <f t="shared" si="1"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I36" s="11">
         <f t="shared" si="1"/>
@@ -6557,7 +8539,7 @@
       </c>
       <c r="C37" s="11">
         <f t="shared" si="1"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D37" s="11">
         <f t="shared" si="1"/>
@@ -6565,7 +8547,7 @@
       </c>
       <c r="E37" s="11">
         <f t="shared" si="1"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F37" s="11">
         <f t="shared" si="1"/>
@@ -6573,11 +8555,11 @@
       </c>
       <c r="G37" s="11">
         <f t="shared" si="1"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H37" s="11">
         <f t="shared" si="1"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I37" s="11">
         <f t="shared" si="1"/>
@@ -6612,7 +8594,9 @@
   </sheetPr>
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6669,25 +8653,25 @@
       </c>
       <c r="C2" s="11">
         <f>'Assigning Deaths by Pollutant'!E25</f>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D2" s="11">
         <v>0</v>
       </c>
       <c r="E2" s="11">
         <f>'Assigning Deaths by Pollutant'!D25</f>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F2" s="11">
         <v>0</v>
       </c>
       <c r="G2" s="11">
         <f>'Assigning Deaths by Pollutant'!B25</f>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H2" s="11">
         <f>'Assigning Deaths by Pollutant'!C25</f>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I2" s="11">
         <v>0</v>
@@ -6715,7 +8699,7 @@
       </c>
       <c r="C3" s="11">
         <f t="shared" ref="C3:M18" si="0">C$2</f>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D3" s="11">
         <f t="shared" si="0"/>
@@ -6723,7 +8707,7 @@
       </c>
       <c r="E3" s="11">
         <f t="shared" si="0"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F3" s="11">
         <f t="shared" si="0"/>
@@ -6731,11 +8715,11 @@
       </c>
       <c r="G3" s="11">
         <f t="shared" si="0"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H3" s="11">
         <f t="shared" si="0"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I3" s="11">
         <f t="shared" si="0"/>
@@ -6768,7 +8752,7 @@
       </c>
       <c r="C4" s="11">
         <f t="shared" si="0"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D4" s="11">
         <f t="shared" si="0"/>
@@ -6776,7 +8760,7 @@
       </c>
       <c r="E4" s="11">
         <f t="shared" si="0"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F4" s="11">
         <f t="shared" si="0"/>
@@ -6784,11 +8768,11 @@
       </c>
       <c r="G4" s="11">
         <f t="shared" si="0"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H4" s="11">
         <f t="shared" si="0"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I4" s="11">
         <f t="shared" si="0"/>
@@ -6821,7 +8805,7 @@
       </c>
       <c r="C5" s="11">
         <f t="shared" si="0"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D5" s="11">
         <f t="shared" si="0"/>
@@ -6829,7 +8813,7 @@
       </c>
       <c r="E5" s="11">
         <f t="shared" si="0"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F5" s="11">
         <f t="shared" si="0"/>
@@ -6837,11 +8821,11 @@
       </c>
       <c r="G5" s="11">
         <f t="shared" si="0"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H5" s="11">
         <f t="shared" si="0"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I5" s="11">
         <f t="shared" si="0"/>
@@ -6874,7 +8858,7 @@
       </c>
       <c r="C6" s="11">
         <f t="shared" si="0"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D6" s="11">
         <f t="shared" si="0"/>
@@ -6882,7 +8866,7 @@
       </c>
       <c r="E6" s="11">
         <f t="shared" si="0"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F6" s="11">
         <f t="shared" si="0"/>
@@ -6890,11 +8874,11 @@
       </c>
       <c r="G6" s="11">
         <f t="shared" si="0"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H6" s="11">
         <f t="shared" si="0"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I6" s="11">
         <f t="shared" si="0"/>
@@ -6927,7 +8911,7 @@
       </c>
       <c r="C7" s="11">
         <f t="shared" si="0"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D7" s="11">
         <f t="shared" si="0"/>
@@ -6935,7 +8919,7 @@
       </c>
       <c r="E7" s="11">
         <f t="shared" si="0"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F7" s="11">
         <f t="shared" si="0"/>
@@ -6943,11 +8927,11 @@
       </c>
       <c r="G7" s="11">
         <f t="shared" si="0"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H7" s="11">
         <f t="shared" si="0"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I7" s="11">
         <f t="shared" si="0"/>
@@ -6980,7 +8964,7 @@
       </c>
       <c r="C8" s="11">
         <f t="shared" si="0"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D8" s="11">
         <f t="shared" si="0"/>
@@ -6988,7 +8972,7 @@
       </c>
       <c r="E8" s="11">
         <f t="shared" si="0"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F8" s="11">
         <f t="shared" si="0"/>
@@ -6996,11 +8980,11 @@
       </c>
       <c r="G8" s="11">
         <f t="shared" si="0"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H8" s="11">
         <f t="shared" si="0"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I8" s="11">
         <f t="shared" si="0"/>
@@ -7033,7 +9017,7 @@
       </c>
       <c r="C9" s="11">
         <f t="shared" si="0"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D9" s="11">
         <f t="shared" si="0"/>
@@ -7041,7 +9025,7 @@
       </c>
       <c r="E9" s="11">
         <f t="shared" si="0"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F9" s="11">
         <f t="shared" si="0"/>
@@ -7049,11 +9033,11 @@
       </c>
       <c r="G9" s="11">
         <f t="shared" si="0"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H9" s="11">
         <f t="shared" si="0"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" si="0"/>
@@ -7086,7 +9070,7 @@
       </c>
       <c r="C10" s="11">
         <f t="shared" si="0"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D10" s="11">
         <f t="shared" si="0"/>
@@ -7094,7 +9078,7 @@
       </c>
       <c r="E10" s="11">
         <f t="shared" si="0"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F10" s="11">
         <f t="shared" si="0"/>
@@ -7102,11 +9086,11 @@
       </c>
       <c r="G10" s="11">
         <f t="shared" si="0"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H10" s="11">
         <f t="shared" si="0"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" si="0"/>
@@ -7139,7 +9123,7 @@
       </c>
       <c r="C11" s="11">
         <f t="shared" si="0"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D11" s="11">
         <f t="shared" si="0"/>
@@ -7147,7 +9131,7 @@
       </c>
       <c r="E11" s="11">
         <f t="shared" si="0"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F11" s="11">
         <f t="shared" si="0"/>
@@ -7155,11 +9139,11 @@
       </c>
       <c r="G11" s="11">
         <f t="shared" si="0"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H11" s="11">
         <f t="shared" si="0"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" si="0"/>
@@ -7192,7 +9176,7 @@
       </c>
       <c r="C12" s="11">
         <f t="shared" si="0"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D12" s="11">
         <f t="shared" si="0"/>
@@ -7200,7 +9184,7 @@
       </c>
       <c r="E12" s="11">
         <f t="shared" si="0"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F12" s="11">
         <f t="shared" si="0"/>
@@ -7208,11 +9192,11 @@
       </c>
       <c r="G12" s="11">
         <f t="shared" si="0"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H12" s="11">
         <f t="shared" si="0"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" si="0"/>
@@ -7245,7 +9229,7 @@
       </c>
       <c r="C13" s="11">
         <f t="shared" si="0"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D13" s="11">
         <f t="shared" si="0"/>
@@ -7253,7 +9237,7 @@
       </c>
       <c r="E13" s="11">
         <f t="shared" si="0"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F13" s="11">
         <f t="shared" si="0"/>
@@ -7261,11 +9245,11 @@
       </c>
       <c r="G13" s="11">
         <f t="shared" si="0"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H13" s="11">
         <f t="shared" si="0"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" si="0"/>
@@ -7298,7 +9282,7 @@
       </c>
       <c r="C14" s="11">
         <f t="shared" si="0"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D14" s="11">
         <f t="shared" si="0"/>
@@ -7306,7 +9290,7 @@
       </c>
       <c r="E14" s="11">
         <f t="shared" si="0"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F14" s="11">
         <f t="shared" si="0"/>
@@ -7314,11 +9298,11 @@
       </c>
       <c r="G14" s="11">
         <f t="shared" si="0"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H14" s="11">
         <f t="shared" si="0"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" si="0"/>
@@ -7351,7 +9335,7 @@
       </c>
       <c r="C15" s="11">
         <f t="shared" si="0"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D15" s="11">
         <f t="shared" si="0"/>
@@ -7359,7 +9343,7 @@
       </c>
       <c r="E15" s="11">
         <f t="shared" si="0"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F15" s="11">
         <f t="shared" si="0"/>
@@ -7367,11 +9351,11 @@
       </c>
       <c r="G15" s="11">
         <f t="shared" si="0"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H15" s="11">
         <f t="shared" si="0"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" si="0"/>
@@ -7404,7 +9388,7 @@
       </c>
       <c r="C16" s="11">
         <f t="shared" si="0"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D16" s="11">
         <f t="shared" si="0"/>
@@ -7412,7 +9396,7 @@
       </c>
       <c r="E16" s="11">
         <f t="shared" si="0"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F16" s="11">
         <f t="shared" si="0"/>
@@ -7420,11 +9404,11 @@
       </c>
       <c r="G16" s="11">
         <f t="shared" si="0"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H16" s="11">
         <f t="shared" si="0"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" si="0"/>
@@ -7457,7 +9441,7 @@
       </c>
       <c r="C17" s="11">
         <f t="shared" si="0"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D17" s="11">
         <f t="shared" si="0"/>
@@ -7465,7 +9449,7 @@
       </c>
       <c r="E17" s="11">
         <f t="shared" si="0"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F17" s="11">
         <f t="shared" si="0"/>
@@ -7473,11 +9457,11 @@
       </c>
       <c r="G17" s="11">
         <f t="shared" si="0"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H17" s="11">
         <f t="shared" si="0"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" si="0"/>
@@ -7510,7 +9494,7 @@
       </c>
       <c r="C18" s="11">
         <f t="shared" si="0"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D18" s="11">
         <f t="shared" si="0"/>
@@ -7518,7 +9502,7 @@
       </c>
       <c r="E18" s="11">
         <f t="shared" si="0"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F18" s="11">
         <f t="shared" si="0"/>
@@ -7526,11 +9510,11 @@
       </c>
       <c r="G18" s="11">
         <f t="shared" si="0"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H18" s="11">
         <f t="shared" si="0"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" si="0"/>
@@ -7563,7 +9547,7 @@
       </c>
       <c r="C19" s="11">
         <f t="shared" si="1"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D19" s="11">
         <f t="shared" si="1"/>
@@ -7571,7 +9555,7 @@
       </c>
       <c r="E19" s="11">
         <f t="shared" si="1"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F19" s="11">
         <f t="shared" si="1"/>
@@ -7579,11 +9563,11 @@
       </c>
       <c r="G19" s="11">
         <f t="shared" si="1"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H19" s="11">
         <f t="shared" si="1"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" si="1"/>
@@ -7616,7 +9600,7 @@
       </c>
       <c r="C20" s="11">
         <f t="shared" si="1"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D20" s="11">
         <f t="shared" si="1"/>
@@ -7624,7 +9608,7 @@
       </c>
       <c r="E20" s="11">
         <f t="shared" si="1"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F20" s="11">
         <f t="shared" si="1"/>
@@ -7632,11 +9616,11 @@
       </c>
       <c r="G20" s="11">
         <f t="shared" si="1"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H20" s="11">
         <f t="shared" si="1"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" si="1"/>
@@ -7669,7 +9653,7 @@
       </c>
       <c r="C21" s="11">
         <f t="shared" si="1"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D21" s="11">
         <f t="shared" si="1"/>
@@ -7677,7 +9661,7 @@
       </c>
       <c r="E21" s="11">
         <f t="shared" si="1"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F21" s="11">
         <f t="shared" si="1"/>
@@ -7685,11 +9669,11 @@
       </c>
       <c r="G21" s="11">
         <f t="shared" si="1"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H21" s="11">
         <f t="shared" si="1"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I21" s="11">
         <f t="shared" si="1"/>
@@ -7722,7 +9706,7 @@
       </c>
       <c r="C22" s="11">
         <f t="shared" si="1"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D22" s="11">
         <f t="shared" si="1"/>
@@ -7730,7 +9714,7 @@
       </c>
       <c r="E22" s="11">
         <f t="shared" si="1"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F22" s="11">
         <f t="shared" si="1"/>
@@ -7738,11 +9722,11 @@
       </c>
       <c r="G22" s="11">
         <f t="shared" si="1"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H22" s="11">
         <f t="shared" si="1"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" si="1"/>
@@ -7775,7 +9759,7 @@
       </c>
       <c r="C23" s="11">
         <f t="shared" si="1"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D23" s="11">
         <f t="shared" si="1"/>
@@ -7783,7 +9767,7 @@
       </c>
       <c r="E23" s="11">
         <f t="shared" si="1"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F23" s="11">
         <f t="shared" si="1"/>
@@ -7791,11 +9775,11 @@
       </c>
       <c r="G23" s="11">
         <f t="shared" si="1"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H23" s="11">
         <f t="shared" si="1"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" si="1"/>
@@ -7828,7 +9812,7 @@
       </c>
       <c r="C24" s="11">
         <f t="shared" si="1"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D24" s="11">
         <f t="shared" si="1"/>
@@ -7836,7 +9820,7 @@
       </c>
       <c r="E24" s="11">
         <f t="shared" si="1"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F24" s="11">
         <f t="shared" si="1"/>
@@ -7844,11 +9828,11 @@
       </c>
       <c r="G24" s="11">
         <f t="shared" si="1"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H24" s="11">
         <f t="shared" si="1"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" si="1"/>
@@ -7881,7 +9865,7 @@
       </c>
       <c r="C25" s="11">
         <f t="shared" si="1"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D25" s="11">
         <f t="shared" si="1"/>
@@ -7889,7 +9873,7 @@
       </c>
       <c r="E25" s="11">
         <f t="shared" si="1"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F25" s="11">
         <f t="shared" si="1"/>
@@ -7897,11 +9881,11 @@
       </c>
       <c r="G25" s="11">
         <f t="shared" si="1"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H25" s="11">
         <f t="shared" si="1"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" si="1"/>
@@ -7934,7 +9918,7 @@
       </c>
       <c r="C26" s="11">
         <f t="shared" si="1"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D26" s="11">
         <f t="shared" si="1"/>
@@ -7942,7 +9926,7 @@
       </c>
       <c r="E26" s="11">
         <f t="shared" si="1"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F26" s="11">
         <f t="shared" si="1"/>
@@ -7950,11 +9934,11 @@
       </c>
       <c r="G26" s="11">
         <f t="shared" si="1"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H26" s="11">
         <f t="shared" si="1"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" si="1"/>
@@ -7987,7 +9971,7 @@
       </c>
       <c r="C27" s="11">
         <f t="shared" si="1"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D27" s="11">
         <f t="shared" si="1"/>
@@ -7995,7 +9979,7 @@
       </c>
       <c r="E27" s="11">
         <f t="shared" si="1"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F27" s="11">
         <f t="shared" si="1"/>
@@ -8003,11 +9987,11 @@
       </c>
       <c r="G27" s="11">
         <f t="shared" si="1"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H27" s="11">
         <f t="shared" si="1"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" si="1"/>
@@ -8040,7 +10024,7 @@
       </c>
       <c r="C28" s="11">
         <f t="shared" si="1"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D28" s="11">
         <f t="shared" si="1"/>
@@ -8048,7 +10032,7 @@
       </c>
       <c r="E28" s="11">
         <f t="shared" si="1"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F28" s="11">
         <f t="shared" si="1"/>
@@ -8056,11 +10040,11 @@
       </c>
       <c r="G28" s="11">
         <f t="shared" si="1"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H28" s="11">
         <f t="shared" si="1"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" si="1"/>
@@ -8093,7 +10077,7 @@
       </c>
       <c r="C29" s="11">
         <f t="shared" si="1"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D29" s="11">
         <f t="shared" si="1"/>
@@ -8101,7 +10085,7 @@
       </c>
       <c r="E29" s="11">
         <f t="shared" si="1"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F29" s="11">
         <f t="shared" si="1"/>
@@ -8109,11 +10093,11 @@
       </c>
       <c r="G29" s="11">
         <f t="shared" si="1"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H29" s="11">
         <f t="shared" si="1"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" si="1"/>
@@ -8146,7 +10130,7 @@
       </c>
       <c r="C30" s="11">
         <f t="shared" si="1"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D30" s="11">
         <f t="shared" si="1"/>
@@ -8154,7 +10138,7 @@
       </c>
       <c r="E30" s="11">
         <f t="shared" si="1"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F30" s="11">
         <f t="shared" si="1"/>
@@ -8162,11 +10146,11 @@
       </c>
       <c r="G30" s="11">
         <f t="shared" si="1"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H30" s="11">
         <f t="shared" si="1"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" si="1"/>
@@ -8199,7 +10183,7 @@
       </c>
       <c r="C31" s="11">
         <f t="shared" si="1"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D31" s="11">
         <f t="shared" si="1"/>
@@ -8207,7 +10191,7 @@
       </c>
       <c r="E31" s="11">
         <f t="shared" si="1"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F31" s="11">
         <f t="shared" si="1"/>
@@ -8215,11 +10199,11 @@
       </c>
       <c r="G31" s="11">
         <f t="shared" si="1"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H31" s="11">
         <f t="shared" si="1"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" si="1"/>
@@ -8252,7 +10236,7 @@
       </c>
       <c r="C32" s="11">
         <f t="shared" si="1"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D32" s="11">
         <f t="shared" si="1"/>
@@ -8260,7 +10244,7 @@
       </c>
       <c r="E32" s="11">
         <f t="shared" si="1"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F32" s="11">
         <f t="shared" si="1"/>
@@ -8268,11 +10252,11 @@
       </c>
       <c r="G32" s="11">
         <f t="shared" si="1"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H32" s="11">
         <f t="shared" si="1"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" si="1"/>
@@ -8305,7 +10289,7 @@
       </c>
       <c r="C33" s="11">
         <f t="shared" si="1"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D33" s="11">
         <f t="shared" si="1"/>
@@ -8313,7 +10297,7 @@
       </c>
       <c r="E33" s="11">
         <f t="shared" si="1"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F33" s="11">
         <f t="shared" si="1"/>
@@ -8321,11 +10305,11 @@
       </c>
       <c r="G33" s="11">
         <f t="shared" si="1"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H33" s="11">
         <f t="shared" si="1"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" si="1"/>
@@ -8358,7 +10342,7 @@
       </c>
       <c r="C34" s="11">
         <f t="shared" si="1"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D34" s="11">
         <f t="shared" si="1"/>
@@ -8366,7 +10350,7 @@
       </c>
       <c r="E34" s="11">
         <f t="shared" si="1"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F34" s="11">
         <f t="shared" si="1"/>
@@ -8374,11 +10358,11 @@
       </c>
       <c r="G34" s="11">
         <f t="shared" si="1"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H34" s="11">
         <f t="shared" si="1"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I34" s="11">
         <f t="shared" si="1"/>
@@ -8411,7 +10395,7 @@
       </c>
       <c r="C35" s="11">
         <f t="shared" si="1"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D35" s="11">
         <f t="shared" si="1"/>
@@ -8419,7 +10403,7 @@
       </c>
       <c r="E35" s="11">
         <f t="shared" si="1"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F35" s="11">
         <f t="shared" si="1"/>
@@ -8427,11 +10411,11 @@
       </c>
       <c r="G35" s="11">
         <f t="shared" si="1"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H35" s="11">
         <f t="shared" si="1"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I35" s="11">
         <f t="shared" si="1"/>
@@ -8464,7 +10448,7 @@
       </c>
       <c r="C36" s="11">
         <f t="shared" si="1"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D36" s="11">
         <f t="shared" si="1"/>
@@ -8472,7 +10456,7 @@
       </c>
       <c r="E36" s="11">
         <f t="shared" si="1"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F36" s="11">
         <f t="shared" si="1"/>
@@ -8480,11 +10464,11 @@
       </c>
       <c r="G36" s="11">
         <f t="shared" si="1"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H36" s="11">
         <f t="shared" si="1"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I36" s="11">
         <f t="shared" si="1"/>
@@ -8517,7 +10501,7 @@
       </c>
       <c r="C37" s="11">
         <f t="shared" si="1"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D37" s="11">
         <f t="shared" si="1"/>
@@ -8525,7 +10509,7 @@
       </c>
       <c r="E37" s="11">
         <f t="shared" si="1"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F37" s="11">
         <f t="shared" si="1"/>
@@ -8533,11 +10517,11 @@
       </c>
       <c r="G37" s="11">
         <f t="shared" si="1"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H37" s="11">
         <f t="shared" si="1"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I37" s="11">
         <f t="shared" si="1"/>
@@ -8629,25 +10613,25 @@
       </c>
       <c r="C2" s="11">
         <f>'Assigning Deaths by Pollutant'!E25</f>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D2" s="11">
         <v>0</v>
       </c>
       <c r="E2" s="11">
         <f>'Assigning Deaths by Pollutant'!D25</f>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F2" s="11">
         <v>0</v>
       </c>
       <c r="G2" s="11">
         <f>'Assigning Deaths by Pollutant'!B25</f>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H2" s="11">
         <f>'Assigning Deaths by Pollutant'!C25</f>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I2" s="11">
         <v>0</v>
@@ -8675,7 +10659,7 @@
       </c>
       <c r="C3" s="11">
         <f t="shared" ref="C3:M18" si="0">C$2</f>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D3" s="11">
         <f t="shared" si="0"/>
@@ -8683,7 +10667,7 @@
       </c>
       <c r="E3" s="11">
         <f t="shared" si="0"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F3" s="11">
         <f t="shared" si="0"/>
@@ -8691,11 +10675,11 @@
       </c>
       <c r="G3" s="11">
         <f t="shared" si="0"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H3" s="11">
         <f t="shared" si="0"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I3" s="11">
         <f t="shared" si="0"/>
@@ -8728,7 +10712,7 @@
       </c>
       <c r="C4" s="11">
         <f t="shared" si="0"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D4" s="11">
         <f t="shared" si="0"/>
@@ -8736,7 +10720,7 @@
       </c>
       <c r="E4" s="11">
         <f t="shared" si="0"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F4" s="11">
         <f t="shared" si="0"/>
@@ -8744,11 +10728,11 @@
       </c>
       <c r="G4" s="11">
         <f t="shared" si="0"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H4" s="11">
         <f t="shared" si="0"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I4" s="11">
         <f t="shared" si="0"/>
@@ -8781,7 +10765,7 @@
       </c>
       <c r="C5" s="11">
         <f t="shared" si="0"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D5" s="11">
         <f t="shared" si="0"/>
@@ -8789,7 +10773,7 @@
       </c>
       <c r="E5" s="11">
         <f t="shared" si="0"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F5" s="11">
         <f t="shared" si="0"/>
@@ -8797,11 +10781,11 @@
       </c>
       <c r="G5" s="11">
         <f t="shared" si="0"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H5" s="11">
         <f t="shared" si="0"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I5" s="11">
         <f t="shared" si="0"/>
@@ -8834,7 +10818,7 @@
       </c>
       <c r="C6" s="11">
         <f t="shared" si="0"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D6" s="11">
         <f t="shared" si="0"/>
@@ -8842,7 +10826,7 @@
       </c>
       <c r="E6" s="11">
         <f t="shared" si="0"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F6" s="11">
         <f t="shared" si="0"/>
@@ -8850,11 +10834,11 @@
       </c>
       <c r="G6" s="11">
         <f t="shared" si="0"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H6" s="11">
         <f t="shared" si="0"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I6" s="11">
         <f t="shared" si="0"/>
@@ -8887,7 +10871,7 @@
       </c>
       <c r="C7" s="11">
         <f t="shared" si="0"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D7" s="11">
         <f t="shared" si="0"/>
@@ -8895,7 +10879,7 @@
       </c>
       <c r="E7" s="11">
         <f t="shared" si="0"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F7" s="11">
         <f t="shared" si="0"/>
@@ -8903,11 +10887,11 @@
       </c>
       <c r="G7" s="11">
         <f t="shared" si="0"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H7" s="11">
         <f t="shared" si="0"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I7" s="11">
         <f t="shared" si="0"/>
@@ -8940,7 +10924,7 @@
       </c>
       <c r="C8" s="11">
         <f t="shared" si="0"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D8" s="11">
         <f t="shared" si="0"/>
@@ -8948,7 +10932,7 @@
       </c>
       <c r="E8" s="11">
         <f t="shared" si="0"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F8" s="11">
         <f t="shared" si="0"/>
@@ -8956,11 +10940,11 @@
       </c>
       <c r="G8" s="11">
         <f t="shared" si="0"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H8" s="11">
         <f t="shared" si="0"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I8" s="11">
         <f t="shared" si="0"/>
@@ -8993,7 +10977,7 @@
       </c>
       <c r="C9" s="11">
         <f t="shared" si="0"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D9" s="11">
         <f t="shared" si="0"/>
@@ -9001,7 +10985,7 @@
       </c>
       <c r="E9" s="11">
         <f t="shared" si="0"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F9" s="11">
         <f t="shared" si="0"/>
@@ -9009,11 +10993,11 @@
       </c>
       <c r="G9" s="11">
         <f t="shared" si="0"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H9" s="11">
         <f t="shared" si="0"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" si="0"/>
@@ -9046,7 +11030,7 @@
       </c>
       <c r="C10" s="11">
         <f t="shared" si="0"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D10" s="11">
         <f t="shared" si="0"/>
@@ -9054,7 +11038,7 @@
       </c>
       <c r="E10" s="11">
         <f t="shared" si="0"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F10" s="11">
         <f t="shared" si="0"/>
@@ -9062,11 +11046,11 @@
       </c>
       <c r="G10" s="11">
         <f t="shared" si="0"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H10" s="11">
         <f t="shared" si="0"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" si="0"/>
@@ -9099,7 +11083,7 @@
       </c>
       <c r="C11" s="11">
         <f t="shared" si="0"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D11" s="11">
         <f t="shared" si="0"/>
@@ -9107,7 +11091,7 @@
       </c>
       <c r="E11" s="11">
         <f t="shared" si="0"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F11" s="11">
         <f t="shared" si="0"/>
@@ -9115,11 +11099,11 @@
       </c>
       <c r="G11" s="11">
         <f t="shared" si="0"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H11" s="11">
         <f t="shared" si="0"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" si="0"/>
@@ -9152,7 +11136,7 @@
       </c>
       <c r="C12" s="11">
         <f t="shared" si="0"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D12" s="11">
         <f t="shared" si="0"/>
@@ -9160,7 +11144,7 @@
       </c>
       <c r="E12" s="11">
         <f t="shared" si="0"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F12" s="11">
         <f t="shared" si="0"/>
@@ -9168,11 +11152,11 @@
       </c>
       <c r="G12" s="11">
         <f t="shared" si="0"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H12" s="11">
         <f t="shared" si="0"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" si="0"/>
@@ -9205,7 +11189,7 @@
       </c>
       <c r="C13" s="11">
         <f t="shared" si="0"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D13" s="11">
         <f t="shared" si="0"/>
@@ -9213,7 +11197,7 @@
       </c>
       <c r="E13" s="11">
         <f t="shared" si="0"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F13" s="11">
         <f t="shared" si="0"/>
@@ -9221,11 +11205,11 @@
       </c>
       <c r="G13" s="11">
         <f t="shared" si="0"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H13" s="11">
         <f t="shared" si="0"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" si="0"/>
@@ -9258,7 +11242,7 @@
       </c>
       <c r="C14" s="11">
         <f t="shared" si="0"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D14" s="11">
         <f t="shared" si="0"/>
@@ -9266,7 +11250,7 @@
       </c>
       <c r="E14" s="11">
         <f t="shared" si="0"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F14" s="11">
         <f t="shared" si="0"/>
@@ -9274,11 +11258,11 @@
       </c>
       <c r="G14" s="11">
         <f t="shared" si="0"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H14" s="11">
         <f t="shared" si="0"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" si="0"/>
@@ -9311,7 +11295,7 @@
       </c>
       <c r="C15" s="11">
         <f t="shared" si="0"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D15" s="11">
         <f t="shared" si="0"/>
@@ -9319,7 +11303,7 @@
       </c>
       <c r="E15" s="11">
         <f t="shared" si="0"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F15" s="11">
         <f t="shared" si="0"/>
@@ -9327,11 +11311,11 @@
       </c>
       <c r="G15" s="11">
         <f t="shared" si="0"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H15" s="11">
         <f t="shared" si="0"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" si="0"/>
@@ -9364,7 +11348,7 @@
       </c>
       <c r="C16" s="11">
         <f t="shared" si="0"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D16" s="11">
         <f t="shared" si="0"/>
@@ -9372,7 +11356,7 @@
       </c>
       <c r="E16" s="11">
         <f t="shared" si="0"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F16" s="11">
         <f t="shared" si="0"/>
@@ -9380,11 +11364,11 @@
       </c>
       <c r="G16" s="11">
         <f t="shared" si="0"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H16" s="11">
         <f t="shared" si="0"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" si="0"/>
@@ -9417,7 +11401,7 @@
       </c>
       <c r="C17" s="11">
         <f t="shared" si="0"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D17" s="11">
         <f t="shared" si="0"/>
@@ -9425,7 +11409,7 @@
       </c>
       <c r="E17" s="11">
         <f t="shared" si="0"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F17" s="11">
         <f t="shared" si="0"/>
@@ -9433,11 +11417,11 @@
       </c>
       <c r="G17" s="11">
         <f t="shared" si="0"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H17" s="11">
         <f t="shared" si="0"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" si="0"/>
@@ -9470,7 +11454,7 @@
       </c>
       <c r="C18" s="11">
         <f t="shared" si="0"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D18" s="11">
         <f t="shared" si="0"/>
@@ -9478,7 +11462,7 @@
       </c>
       <c r="E18" s="11">
         <f t="shared" si="0"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F18" s="11">
         <f t="shared" si="0"/>
@@ -9486,11 +11470,11 @@
       </c>
       <c r="G18" s="11">
         <f t="shared" si="0"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H18" s="11">
         <f t="shared" si="0"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" si="0"/>
@@ -9523,7 +11507,7 @@
       </c>
       <c r="C19" s="11">
         <f t="shared" si="1"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D19" s="11">
         <f t="shared" si="1"/>
@@ -9531,7 +11515,7 @@
       </c>
       <c r="E19" s="11">
         <f t="shared" si="1"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F19" s="11">
         <f t="shared" si="1"/>
@@ -9539,11 +11523,11 @@
       </c>
       <c r="G19" s="11">
         <f t="shared" si="1"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H19" s="11">
         <f t="shared" si="1"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" si="1"/>
@@ -9576,7 +11560,7 @@
       </c>
       <c r="C20" s="11">
         <f t="shared" si="1"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D20" s="11">
         <f t="shared" si="1"/>
@@ -9584,7 +11568,7 @@
       </c>
       <c r="E20" s="11">
         <f t="shared" si="1"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F20" s="11">
         <f t="shared" si="1"/>
@@ -9592,11 +11576,11 @@
       </c>
       <c r="G20" s="11">
         <f t="shared" si="1"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H20" s="11">
         <f t="shared" si="1"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" si="1"/>
@@ -9629,7 +11613,7 @@
       </c>
       <c r="C21" s="11">
         <f t="shared" si="1"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D21" s="11">
         <f t="shared" si="1"/>
@@ -9637,7 +11621,7 @@
       </c>
       <c r="E21" s="11">
         <f t="shared" si="1"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F21" s="11">
         <f t="shared" si="1"/>
@@ -9645,11 +11629,11 @@
       </c>
       <c r="G21" s="11">
         <f t="shared" si="1"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H21" s="11">
         <f t="shared" si="1"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I21" s="11">
         <f t="shared" si="1"/>
@@ -9682,7 +11666,7 @@
       </c>
       <c r="C22" s="11">
         <f t="shared" si="1"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D22" s="11">
         <f t="shared" si="1"/>
@@ -9690,7 +11674,7 @@
       </c>
       <c r="E22" s="11">
         <f t="shared" si="1"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F22" s="11">
         <f t="shared" si="1"/>
@@ -9698,11 +11682,11 @@
       </c>
       <c r="G22" s="11">
         <f t="shared" si="1"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H22" s="11">
         <f t="shared" si="1"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" si="1"/>
@@ -9735,7 +11719,7 @@
       </c>
       <c r="C23" s="11">
         <f t="shared" si="1"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D23" s="11">
         <f t="shared" si="1"/>
@@ -9743,7 +11727,7 @@
       </c>
       <c r="E23" s="11">
         <f t="shared" si="1"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F23" s="11">
         <f t="shared" si="1"/>
@@ -9751,11 +11735,11 @@
       </c>
       <c r="G23" s="11">
         <f t="shared" si="1"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H23" s="11">
         <f t="shared" si="1"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" si="1"/>
@@ -9788,7 +11772,7 @@
       </c>
       <c r="C24" s="11">
         <f t="shared" si="1"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D24" s="11">
         <f t="shared" si="1"/>
@@ -9796,7 +11780,7 @@
       </c>
       <c r="E24" s="11">
         <f t="shared" si="1"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F24" s="11">
         <f t="shared" si="1"/>
@@ -9804,11 +11788,11 @@
       </c>
       <c r="G24" s="11">
         <f t="shared" si="1"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H24" s="11">
         <f t="shared" si="1"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" si="1"/>
@@ -9841,7 +11825,7 @@
       </c>
       <c r="C25" s="11">
         <f t="shared" si="1"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D25" s="11">
         <f t="shared" si="1"/>
@@ -9849,7 +11833,7 @@
       </c>
       <c r="E25" s="11">
         <f t="shared" si="1"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F25" s="11">
         <f t="shared" si="1"/>
@@ -9857,11 +11841,11 @@
       </c>
       <c r="G25" s="11">
         <f t="shared" si="1"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H25" s="11">
         <f t="shared" si="1"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" si="1"/>
@@ -9894,7 +11878,7 @@
       </c>
       <c r="C26" s="11">
         <f t="shared" si="1"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D26" s="11">
         <f t="shared" si="1"/>
@@ -9902,7 +11886,7 @@
       </c>
       <c r="E26" s="11">
         <f t="shared" si="1"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F26" s="11">
         <f t="shared" si="1"/>
@@ -9910,11 +11894,11 @@
       </c>
       <c r="G26" s="11">
         <f t="shared" si="1"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H26" s="11">
         <f t="shared" si="1"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" si="1"/>
@@ -9947,7 +11931,7 @@
       </c>
       <c r="C27" s="11">
         <f t="shared" si="1"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D27" s="11">
         <f t="shared" si="1"/>
@@ -9955,7 +11939,7 @@
       </c>
       <c r="E27" s="11">
         <f t="shared" si="1"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F27" s="11">
         <f t="shared" si="1"/>
@@ -9963,11 +11947,11 @@
       </c>
       <c r="G27" s="11">
         <f t="shared" si="1"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H27" s="11">
         <f t="shared" si="1"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" si="1"/>
@@ -10000,7 +11984,7 @@
       </c>
       <c r="C28" s="11">
         <f t="shared" si="1"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D28" s="11">
         <f t="shared" si="1"/>
@@ -10008,7 +11992,7 @@
       </c>
       <c r="E28" s="11">
         <f t="shared" si="1"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F28" s="11">
         <f t="shared" si="1"/>
@@ -10016,11 +12000,11 @@
       </c>
       <c r="G28" s="11">
         <f t="shared" si="1"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H28" s="11">
         <f t="shared" si="1"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" si="1"/>
@@ -10053,7 +12037,7 @@
       </c>
       <c r="C29" s="11">
         <f t="shared" si="1"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D29" s="11">
         <f t="shared" si="1"/>
@@ -10061,7 +12045,7 @@
       </c>
       <c r="E29" s="11">
         <f t="shared" si="1"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F29" s="11">
         <f t="shared" si="1"/>
@@ -10069,11 +12053,11 @@
       </c>
       <c r="G29" s="11">
         <f t="shared" si="1"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H29" s="11">
         <f t="shared" si="1"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" si="1"/>
@@ -10106,7 +12090,7 @@
       </c>
       <c r="C30" s="11">
         <f t="shared" si="1"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D30" s="11">
         <f t="shared" si="1"/>
@@ -10114,7 +12098,7 @@
       </c>
       <c r="E30" s="11">
         <f t="shared" si="1"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F30" s="11">
         <f t="shared" si="1"/>
@@ -10122,11 +12106,11 @@
       </c>
       <c r="G30" s="11">
         <f t="shared" si="1"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H30" s="11">
         <f t="shared" si="1"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" si="1"/>
@@ -10159,7 +12143,7 @@
       </c>
       <c r="C31" s="11">
         <f t="shared" si="1"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D31" s="11">
         <f t="shared" si="1"/>
@@ -10167,7 +12151,7 @@
       </c>
       <c r="E31" s="11">
         <f t="shared" si="1"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F31" s="11">
         <f t="shared" si="1"/>
@@ -10175,11 +12159,11 @@
       </c>
       <c r="G31" s="11">
         <f t="shared" si="1"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H31" s="11">
         <f t="shared" si="1"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" si="1"/>
@@ -10212,7 +12196,7 @@
       </c>
       <c r="C32" s="11">
         <f t="shared" si="1"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D32" s="11">
         <f t="shared" si="1"/>
@@ -10220,7 +12204,7 @@
       </c>
       <c r="E32" s="11">
         <f t="shared" si="1"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F32" s="11">
         <f t="shared" si="1"/>
@@ -10228,11 +12212,11 @@
       </c>
       <c r="G32" s="11">
         <f t="shared" si="1"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H32" s="11">
         <f t="shared" si="1"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" si="1"/>
@@ -10265,7 +12249,7 @@
       </c>
       <c r="C33" s="11">
         <f t="shared" si="1"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D33" s="11">
         <f t="shared" si="1"/>
@@ -10273,7 +12257,7 @@
       </c>
       <c r="E33" s="11">
         <f t="shared" si="1"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F33" s="11">
         <f t="shared" si="1"/>
@@ -10281,11 +12265,11 @@
       </c>
       <c r="G33" s="11">
         <f t="shared" si="1"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H33" s="11">
         <f t="shared" si="1"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" si="1"/>
@@ -10318,7 +12302,7 @@
       </c>
       <c r="C34" s="11">
         <f t="shared" si="1"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D34" s="11">
         <f t="shared" si="1"/>
@@ -10326,7 +12310,7 @@
       </c>
       <c r="E34" s="11">
         <f t="shared" si="1"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F34" s="11">
         <f t="shared" si="1"/>
@@ -10334,11 +12318,11 @@
       </c>
       <c r="G34" s="11">
         <f t="shared" si="1"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H34" s="11">
         <f t="shared" si="1"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I34" s="11">
         <f t="shared" si="1"/>
@@ -10371,7 +12355,7 @@
       </c>
       <c r="C35" s="11">
         <f t="shared" si="1"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D35" s="11">
         <f t="shared" si="1"/>
@@ -10379,7 +12363,7 @@
       </c>
       <c r="E35" s="11">
         <f t="shared" si="1"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F35" s="11">
         <f t="shared" si="1"/>
@@ -10387,11 +12371,11 @@
       </c>
       <c r="G35" s="11">
         <f t="shared" si="1"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H35" s="11">
         <f t="shared" si="1"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I35" s="11">
         <f t="shared" si="1"/>
@@ -10424,7 +12408,7 @@
       </c>
       <c r="C36" s="11">
         <f t="shared" si="1"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D36" s="11">
         <f t="shared" si="1"/>
@@ -10432,7 +12416,7 @@
       </c>
       <c r="E36" s="11">
         <f t="shared" si="1"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F36" s="11">
         <f t="shared" si="1"/>
@@ -10440,11 +12424,11 @@
       </c>
       <c r="G36" s="11">
         <f t="shared" si="1"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H36" s="11">
         <f t="shared" si="1"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I36" s="11">
         <f t="shared" si="1"/>
@@ -10477,7 +12461,7 @@
       </c>
       <c r="C37" s="11">
         <f t="shared" si="1"/>
-        <v>1.7447424046334594E-4</v>
+        <v>2.8450707278884286E-4</v>
       </c>
       <c r="D37" s="11">
         <f t="shared" si="1"/>
@@ -10485,7 +12469,7 @@
       </c>
       <c r="E37" s="11">
         <f t="shared" si="1"/>
-        <v>8.2645692851058606E-4</v>
+        <v>1.3476650816313608E-3</v>
       </c>
       <c r="F37" s="11">
         <f t="shared" si="1"/>
@@ -10493,11 +12477,11 @@
       </c>
       <c r="G37" s="11">
         <f t="shared" si="1"/>
-        <v>4.1261627393787782E-2</v>
+        <v>6.7283427038484236E-2</v>
       </c>
       <c r="H37" s="11">
         <f t="shared" si="1"/>
-        <v>4.2730884155584379E-3</v>
+        <v>6.9679276072495558E-3</v>
       </c>
       <c r="I37" s="11">
         <f t="shared" si="1"/>
